--- a/base/data_set/as_report.xlsx
+++ b/base/data_set/as_report.xlsx
@@ -373,7 +373,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -397,8 +397,8 @@
     <col width="30" customWidth="1" min="14" max="14"/>
     <col width="30" customWidth="1" min="15" max="15"/>
     <col width="30" customWidth="1" min="16" max="16"/>
-    <col width="10" customWidth="1" min="17" max="17"/>
-    <col width="30" customWidth="1" min="18" max="18"/>
+    <col width="30" customWidth="1" min="17" max="17"/>
+    <col width="10" customWidth="1" min="18" max="18"/>
     <col width="30" customWidth="1" min="19" max="19"/>
     <col width="30" customWidth="1" min="20" max="20"/>
     <col width="30" customWidth="1" min="21" max="21"/>
@@ -413,9 +413,9 @@
     <col width="30" customWidth="1" min="30" max="30"/>
     <col width="30" customWidth="1" min="31" max="31"/>
     <col width="30" customWidth="1" min="32" max="32"/>
-    <col width="10" customWidth="1" min="33" max="33"/>
+    <col width="30" customWidth="1" min="33" max="33"/>
     <col width="30" customWidth="1" min="34" max="34"/>
-    <col width="30" customWidth="1" min="35" max="35"/>
+    <col width="10" customWidth="1" min="35" max="35"/>
     <col width="30" customWidth="1" min="36" max="36"/>
     <col width="30" customWidth="1" min="37" max="37"/>
     <col width="30" customWidth="1" min="38" max="38"/>
@@ -429,10 +429,10 @@
     <col width="30" customWidth="1" min="46" max="46"/>
     <col width="30" customWidth="1" min="47" max="47"/>
     <col width="30" customWidth="1" min="48" max="48"/>
-    <col width="10" customWidth="1" min="49" max="49"/>
+    <col width="30" customWidth="1" min="49" max="49"/>
     <col width="30" customWidth="1" min="50" max="50"/>
     <col width="30" customWidth="1" min="51" max="51"/>
-    <col width="30" customWidth="1" min="52" max="52"/>
+    <col width="10" customWidth="1" min="52" max="52"/>
     <col width="30" customWidth="1" min="53" max="53"/>
     <col width="30" customWidth="1" min="54" max="54"/>
     <col width="30" customWidth="1" min="55" max="55"/>
@@ -445,11 +445,11 @@
     <col width="30" customWidth="1" min="62" max="62"/>
     <col width="30" customWidth="1" min="63" max="63"/>
     <col width="30" customWidth="1" min="64" max="64"/>
-    <col width="10" customWidth="1" min="65" max="65"/>
+    <col width="30" customWidth="1" min="65" max="65"/>
     <col width="30" customWidth="1" min="66" max="66"/>
     <col width="30" customWidth="1" min="67" max="67"/>
     <col width="30" customWidth="1" min="68" max="68"/>
-    <col width="30" customWidth="1" min="69" max="69"/>
+    <col width="10" customWidth="1" min="69" max="69"/>
     <col width="30" customWidth="1" min="70" max="70"/>
     <col width="30" customWidth="1" min="71" max="71"/>
     <col width="30" customWidth="1" min="72" max="72"/>
@@ -461,12 +461,12 @@
     <col width="30" customWidth="1" min="78" max="78"/>
     <col width="30" customWidth="1" min="79" max="79"/>
     <col width="30" customWidth="1" min="80" max="80"/>
-    <col width="10" customWidth="1" min="81" max="81"/>
+    <col width="30" customWidth="1" min="81" max="81"/>
     <col width="30" customWidth="1" min="82" max="82"/>
     <col width="30" customWidth="1" min="83" max="83"/>
     <col width="30" customWidth="1" min="84" max="84"/>
     <col width="30" customWidth="1" min="85" max="85"/>
-    <col width="30" customWidth="1" min="86" max="86"/>
+    <col width="10" customWidth="1" min="86" max="86"/>
     <col width="30" customWidth="1" min="87" max="87"/>
     <col width="30" customWidth="1" min="88" max="88"/>
     <col width="30" customWidth="1" min="89" max="89"/>
@@ -477,6 +477,97 @@
     <col width="30" customWidth="1" min="94" max="94"/>
     <col width="30" customWidth="1" min="95" max="95"/>
     <col width="30" customWidth="1" min="96" max="96"/>
+    <col width="30" customWidth="1" min="97" max="97"/>
+    <col width="30" customWidth="1" min="98" max="98"/>
+    <col width="30" customWidth="1" min="99" max="99"/>
+    <col width="30" customWidth="1" min="100" max="100"/>
+    <col width="30" customWidth="1" min="101" max="101"/>
+    <col width="30" customWidth="1" min="102" max="102"/>
+    <col width="10" customWidth="1" min="103" max="103"/>
+    <col width="30" customWidth="1" min="104" max="104"/>
+    <col width="30" customWidth="1" min="105" max="105"/>
+    <col width="30" customWidth="1" min="106" max="106"/>
+    <col width="30" customWidth="1" min="107" max="107"/>
+    <col width="30" customWidth="1" min="108" max="108"/>
+    <col width="30" customWidth="1" min="109" max="109"/>
+    <col width="30" customWidth="1" min="110" max="110"/>
+    <col width="30" customWidth="1" min="111" max="111"/>
+    <col width="30" customWidth="1" min="112" max="112"/>
+    <col width="30" customWidth="1" min="113" max="113"/>
+    <col width="30" customWidth="1" min="114" max="114"/>
+    <col width="30" customWidth="1" min="115" max="115"/>
+    <col width="30" customWidth="1" min="116" max="116"/>
+    <col width="30" customWidth="1" min="117" max="117"/>
+    <col width="30" customWidth="1" min="118" max="118"/>
+    <col width="30" customWidth="1" min="119" max="119"/>
+    <col width="10" customWidth="1" min="120" max="120"/>
+    <col width="30" customWidth="1" min="121" max="121"/>
+    <col width="30" customWidth="1" min="122" max="122"/>
+    <col width="30" customWidth="1" min="123" max="123"/>
+    <col width="30" customWidth="1" min="124" max="124"/>
+    <col width="30" customWidth="1" min="125" max="125"/>
+    <col width="30" customWidth="1" min="126" max="126"/>
+    <col width="30" customWidth="1" min="127" max="127"/>
+    <col width="30" customWidth="1" min="128" max="128"/>
+    <col width="30" customWidth="1" min="129" max="129"/>
+    <col width="30" customWidth="1" min="130" max="130"/>
+    <col width="30" customWidth="1" min="131" max="131"/>
+    <col width="30" customWidth="1" min="132" max="132"/>
+    <col width="30" customWidth="1" min="133" max="133"/>
+    <col width="30" customWidth="1" min="134" max="134"/>
+    <col width="30" customWidth="1" min="135" max="135"/>
+    <col width="30" customWidth="1" min="136" max="136"/>
+    <col width="10" customWidth="1" min="137" max="137"/>
+    <col width="30" customWidth="1" min="138" max="138"/>
+    <col width="30" customWidth="1" min="139" max="139"/>
+    <col width="30" customWidth="1" min="140" max="140"/>
+    <col width="30" customWidth="1" min="141" max="141"/>
+    <col width="30" customWidth="1" min="142" max="142"/>
+    <col width="30" customWidth="1" min="143" max="143"/>
+    <col width="30" customWidth="1" min="144" max="144"/>
+    <col width="30" customWidth="1" min="145" max="145"/>
+    <col width="30" customWidth="1" min="146" max="146"/>
+    <col width="30" customWidth="1" min="147" max="147"/>
+    <col width="30" customWidth="1" min="148" max="148"/>
+    <col width="30" customWidth="1" min="149" max="149"/>
+    <col width="30" customWidth="1" min="150" max="150"/>
+    <col width="30" customWidth="1" min="151" max="151"/>
+    <col width="30" customWidth="1" min="152" max="152"/>
+    <col width="30" customWidth="1" min="153" max="153"/>
+    <col width="10" customWidth="1" min="154" max="154"/>
+    <col width="30" customWidth="1" min="155" max="155"/>
+    <col width="30" customWidth="1" min="156" max="156"/>
+    <col width="30" customWidth="1" min="157" max="157"/>
+    <col width="30" customWidth="1" min="158" max="158"/>
+    <col width="30" customWidth="1" min="159" max="159"/>
+    <col width="30" customWidth="1" min="160" max="160"/>
+    <col width="30" customWidth="1" min="161" max="161"/>
+    <col width="30" customWidth="1" min="162" max="162"/>
+    <col width="30" customWidth="1" min="163" max="163"/>
+    <col width="30" customWidth="1" min="164" max="164"/>
+    <col width="30" customWidth="1" min="165" max="165"/>
+    <col width="30" customWidth="1" min="166" max="166"/>
+    <col width="30" customWidth="1" min="167" max="167"/>
+    <col width="30" customWidth="1" min="168" max="168"/>
+    <col width="30" customWidth="1" min="169" max="169"/>
+    <col width="30" customWidth="1" min="170" max="170"/>
+    <col width="10" customWidth="1" min="171" max="171"/>
+    <col width="30" customWidth="1" min="172" max="172"/>
+    <col width="30" customWidth="1" min="173" max="173"/>
+    <col width="30" customWidth="1" min="174" max="174"/>
+    <col width="30" customWidth="1" min="175" max="175"/>
+    <col width="30" customWidth="1" min="176" max="176"/>
+    <col width="30" customWidth="1" min="177" max="177"/>
+    <col width="30" customWidth="1" min="178" max="178"/>
+    <col width="30" customWidth="1" min="179" max="179"/>
+    <col width="30" customWidth="1" min="180" max="180"/>
+    <col width="30" customWidth="1" min="181" max="181"/>
+    <col width="30" customWidth="1" min="182" max="182"/>
+    <col width="30" customWidth="1" min="183" max="183"/>
+    <col width="30" customWidth="1" min="184" max="184"/>
+    <col width="30" customWidth="1" min="185" max="185"/>
+    <col width="30" customWidth="1" min="186" max="186"/>
+    <col width="30" customWidth="1" min="187" max="187"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -517,47 +608,52 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>ZP cash</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Compensations Total</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Services Total</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Daily Gross</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>% Payout</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Adjusted Net (Month)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Company cash</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>Change (account +/-)</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Total Net (Month)</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Daily Adj Net</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>% Payout</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Deadline</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Total Net (Month)</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Compensations Total</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Social</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Withdrawal</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Gross (Month)</t>
         </is>
       </c>
     </row>
@@ -566,50 +662,55 @@
         <v>90000</v>
       </c>
       <c r="B2" t="n">
-        <v>36</v>
+        <v>502</v>
       </c>
       <c r="C2" t="n">
-        <v>-10752</v>
+        <v>526</v>
       </c>
       <c r="D2" t="n">
-        <v>1034</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>-1413</v>
+        <v>451</v>
       </c>
       <c r="F2" t="n">
-        <v>927</v>
+        <v>-2087</v>
       </c>
       <c r="G2" t="n">
-        <v>78</v>
+        <v>634</v>
       </c>
       <c r="H2" t="n">
-        <v>-143</v>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>203</v>
       </c>
       <c r="J2" t="n">
+        <v>-589</v>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
         <v>0.37</v>
       </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>-633</v>
-      </c>
-      <c r="M2" t="n">
-        <v>158</v>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N2" t="n">
-        <v>44</v>
+        <v>-872</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" s="3" t="inlineStr">
+        <v>-77</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-872</v>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -620,50 +721,55 @@
         <v>90001</v>
       </c>
       <c r="B3" t="n">
-        <v>7701</v>
+        <v>212</v>
       </c>
       <c r="C3" t="n">
-        <v>-1937</v>
+        <v>1107</v>
       </c>
       <c r="D3" t="n">
-        <v>649</v>
+        <v>894</v>
       </c>
       <c r="E3" t="n">
-        <v>227</v>
+        <v>527</v>
       </c>
       <c r="F3" t="n">
-        <v>692</v>
+        <v>-47</v>
       </c>
       <c r="G3" t="n">
-        <v>798</v>
+        <v>1002</v>
       </c>
       <c r="H3" t="n">
-        <v>-143</v>
-      </c>
-      <c r="I3" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>542</v>
       </c>
       <c r="J3" t="n">
+        <v>-392</v>
+      </c>
+      <c r="K3" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
         <v>0.37</v>
       </c>
-      <c r="K3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" t="n">
-        <v>956</v>
-      </c>
-      <c r="M3" t="n">
-        <v>386</v>
+      <c r="M3" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N3" t="n">
-        <v>196</v>
+        <v>-742</v>
       </c>
       <c r="O3" t="n">
-        <v>216</v>
-      </c>
-      <c r="P3" s="3" t="inlineStr">
+        <v>-179</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-742</v>
+      </c>
+      <c r="Q3" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -674,50 +780,55 @@
         <v>90002</v>
       </c>
       <c r="B4" t="n">
-        <v>-420</v>
+        <v>-1047</v>
       </c>
       <c r="C4" t="n">
-        <v>-1054</v>
+        <v>676</v>
       </c>
       <c r="D4" t="n">
-        <v>-2281</v>
+        <v>383</v>
       </c>
       <c r="E4" t="n">
-        <v>337</v>
+        <v>733</v>
       </c>
       <c r="F4" t="n">
-        <v>-2953</v>
+        <v>862</v>
       </c>
       <c r="G4" t="n">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="H4" t="n">
-        <v>-160</v>
-      </c>
-      <c r="I4" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>157</v>
+      </c>
+      <c r="I4" t="n">
+        <v>429</v>
       </c>
       <c r="J4" t="n">
+        <v>-416</v>
+      </c>
+      <c r="K4" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
         <v>0.37</v>
       </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1722</v>
-      </c>
-      <c r="M4" t="n">
-        <v>315</v>
+      <c r="M4" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N4" t="n">
-        <v>81</v>
+        <v>1063</v>
       </c>
       <c r="O4" t="n">
-        <v>190</v>
-      </c>
-      <c r="P4" s="3" t="inlineStr">
+        <v>96</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1220</v>
+      </c>
+      <c r="Q4" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -728,50 +839,55 @@
         <v>90003</v>
       </c>
       <c r="B5" t="n">
-        <v>7031</v>
+        <v>-3214</v>
       </c>
       <c r="C5" t="n">
-        <v>714</v>
+        <v>-1520</v>
       </c>
       <c r="D5" t="n">
-        <v>299</v>
+        <v>1181</v>
       </c>
       <c r="E5" t="n">
-        <v>778</v>
+        <v>-2941</v>
       </c>
       <c r="F5" t="n">
-        <v>-2691</v>
+        <v>161</v>
       </c>
       <c r="G5" t="n">
-        <v>964</v>
+        <v>9725</v>
       </c>
       <c r="H5" t="n">
-        <v>-163</v>
-      </c>
-      <c r="I5" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>310</v>
       </c>
       <c r="J5" t="n">
+        <v>-253</v>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
         <v>0.37</v>
       </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>-2</v>
-      </c>
-      <c r="M5" t="n">
-        <v>709</v>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N5" t="n">
-        <v>118</v>
+        <v>-142</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" s="3" t="inlineStr">
+        <v>-74</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-142</v>
+      </c>
+      <c r="Q5" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -782,50 +898,350 @@
         <v>90004</v>
       </c>
       <c r="B6" t="n">
-        <v>-553</v>
+        <v>-140</v>
       </c>
       <c r="C6" t="n">
-        <v>-3156</v>
+        <v>415</v>
       </c>
       <c r="D6" t="n">
-        <v>3641</v>
+        <v>672</v>
       </c>
       <c r="E6" t="n">
-        <v>679</v>
+        <v>149</v>
       </c>
       <c r="F6" t="n">
-        <v>458</v>
+        <v>970</v>
       </c>
       <c r="G6" t="n">
-        <v>453</v>
+        <v>60</v>
       </c>
       <c r="H6" t="n">
-        <v>113</v>
-      </c>
-      <c r="I6" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>42</v>
+      </c>
+      <c r="I6" t="n">
+        <v>396</v>
       </c>
       <c r="J6" t="n">
+        <v>-834</v>
+      </c>
+      <c r="K6" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
         <v>0.37</v>
       </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>396</v>
-      </c>
-      <c r="M6" t="n">
-        <v>550</v>
+      <c r="M6" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N6" t="n">
-        <v>3</v>
+        <v>198</v>
       </c>
       <c r="O6" t="n">
-        <v>122</v>
-      </c>
-      <c r="P6" s="3" t="inlineStr">
+        <v>16</v>
+      </c>
+      <c r="P6" t="n">
+        <v>240</v>
+      </c>
+      <c r="Q6" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>90005</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1037</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-152</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-6362</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-2415</v>
+      </c>
+      <c r="F7" t="n">
+        <v>52</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4401</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>657</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-168</v>
+      </c>
+      <c r="K7" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="M7" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>-135</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-135</v>
+      </c>
+      <c r="Q7" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>90006</v>
+      </c>
+      <c r="B8" t="n">
+        <v>752</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-2959</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-2652</v>
+      </c>
+      <c r="E8" t="n">
+        <v>360</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-147</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-1218</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>343</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-519</v>
+      </c>
+      <c r="K8" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="M8" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>-23</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-112</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-23</v>
+      </c>
+      <c r="Q8" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>90007</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-163</v>
+      </c>
+      <c r="C9" t="n">
+        <v>212</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-111</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-7744</v>
+      </c>
+      <c r="F9" t="n">
+        <v>928</v>
+      </c>
+      <c r="G9" t="n">
+        <v>296</v>
+      </c>
+      <c r="H9" t="n">
+        <v>206</v>
+      </c>
+      <c r="I9" t="n">
+        <v>431</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-437</v>
+      </c>
+      <c r="K9" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="M9" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>638</v>
+      </c>
+      <c r="O9" t="n">
+        <v>23</v>
+      </c>
+      <c r="P9" t="n">
+        <v>844</v>
+      </c>
+      <c r="Q9" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>90008</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-658</v>
+      </c>
+      <c r="C10" t="n">
+        <v>265</v>
+      </c>
+      <c r="D10" t="n">
+        <v>767</v>
+      </c>
+      <c r="E10" t="n">
+        <v>688</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1664</v>
+      </c>
+      <c r="G10" t="n">
+        <v>482</v>
+      </c>
+      <c r="H10" t="n">
+        <v>480</v>
+      </c>
+      <c r="I10" t="n">
+        <v>433</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-534</v>
+      </c>
+      <c r="K10" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="M10" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>957</v>
+      </c>
+      <c r="O10" t="n">
+        <v>65</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1437</v>
+      </c>
+      <c r="Q10" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>90009</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4930</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-1970</v>
+      </c>
+      <c r="D11" t="n">
+        <v>334</v>
+      </c>
+      <c r="E11" t="n">
+        <v>45</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-481</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3897</v>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+      <c r="I11" t="n">
+        <v>404</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-736</v>
+      </c>
+      <c r="K11" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="M11" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>1442</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-114</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1448</v>
+      </c>
+      <c r="Q11" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/base/data_set/as_report.xlsx
+++ b/base/data_set/as_report.xlsx
@@ -64,15 +64,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="3"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -373,7 +370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -390,7 +387,7 @@
     <col width="30" customWidth="1" min="7" max="7"/>
     <col width="30" customWidth="1" min="8" max="8"/>
     <col width="30" customWidth="1" min="9" max="9"/>
-    <col width="30" customWidth="1" min="10" max="10"/>
+    <col width="10" customWidth="1" min="10" max="10"/>
     <col width="30" customWidth="1" min="11" max="11"/>
     <col width="30" customWidth="1" min="12" max="12"/>
     <col width="30" customWidth="1" min="13" max="13"/>
@@ -398,8 +395,8 @@
     <col width="30" customWidth="1" min="15" max="15"/>
     <col width="30" customWidth="1" min="16" max="16"/>
     <col width="30" customWidth="1" min="17" max="17"/>
-    <col width="10" customWidth="1" min="18" max="18"/>
-    <col width="30" customWidth="1" min="19" max="19"/>
+    <col width="30" customWidth="1" min="18" max="18"/>
+    <col width="10" customWidth="1" min="19" max="19"/>
     <col width="30" customWidth="1" min="20" max="20"/>
     <col width="30" customWidth="1" min="21" max="21"/>
     <col width="30" customWidth="1" min="22" max="22"/>
@@ -408,16 +405,16 @@
     <col width="30" customWidth="1" min="25" max="25"/>
     <col width="30" customWidth="1" min="26" max="26"/>
     <col width="30" customWidth="1" min="27" max="27"/>
-    <col width="30" customWidth="1" min="28" max="28"/>
+    <col width="10" customWidth="1" min="28" max="28"/>
     <col width="30" customWidth="1" min="29" max="29"/>
     <col width="30" customWidth="1" min="30" max="30"/>
     <col width="30" customWidth="1" min="31" max="31"/>
     <col width="30" customWidth="1" min="32" max="32"/>
     <col width="30" customWidth="1" min="33" max="33"/>
     <col width="30" customWidth="1" min="34" max="34"/>
-    <col width="10" customWidth="1" min="35" max="35"/>
+    <col width="30" customWidth="1" min="35" max="35"/>
     <col width="30" customWidth="1" min="36" max="36"/>
-    <col width="30" customWidth="1" min="37" max="37"/>
+    <col width="10" customWidth="1" min="37" max="37"/>
     <col width="30" customWidth="1" min="38" max="38"/>
     <col width="30" customWidth="1" min="39" max="39"/>
     <col width="30" customWidth="1" min="40" max="40"/>
@@ -426,16 +423,16 @@
     <col width="30" customWidth="1" min="43" max="43"/>
     <col width="30" customWidth="1" min="44" max="44"/>
     <col width="30" customWidth="1" min="45" max="45"/>
-    <col width="30" customWidth="1" min="46" max="46"/>
+    <col width="10" customWidth="1" min="46" max="46"/>
     <col width="30" customWidth="1" min="47" max="47"/>
     <col width="30" customWidth="1" min="48" max="48"/>
     <col width="30" customWidth="1" min="49" max="49"/>
     <col width="30" customWidth="1" min="50" max="50"/>
     <col width="30" customWidth="1" min="51" max="51"/>
-    <col width="10" customWidth="1" min="52" max="52"/>
+    <col width="30" customWidth="1" min="52" max="52"/>
     <col width="30" customWidth="1" min="53" max="53"/>
     <col width="30" customWidth="1" min="54" max="54"/>
-    <col width="30" customWidth="1" min="55" max="55"/>
+    <col width="10" customWidth="1" min="55" max="55"/>
     <col width="30" customWidth="1" min="56" max="56"/>
     <col width="30" customWidth="1" min="57" max="57"/>
     <col width="30" customWidth="1" min="58" max="58"/>
@@ -444,16 +441,16 @@
     <col width="30" customWidth="1" min="61" max="61"/>
     <col width="30" customWidth="1" min="62" max="62"/>
     <col width="30" customWidth="1" min="63" max="63"/>
-    <col width="30" customWidth="1" min="64" max="64"/>
+    <col width="10" customWidth="1" min="64" max="64"/>
     <col width="30" customWidth="1" min="65" max="65"/>
     <col width="30" customWidth="1" min="66" max="66"/>
     <col width="30" customWidth="1" min="67" max="67"/>
     <col width="30" customWidth="1" min="68" max="68"/>
-    <col width="10" customWidth="1" min="69" max="69"/>
+    <col width="30" customWidth="1" min="69" max="69"/>
     <col width="30" customWidth="1" min="70" max="70"/>
     <col width="30" customWidth="1" min="71" max="71"/>
     <col width="30" customWidth="1" min="72" max="72"/>
-    <col width="30" customWidth="1" min="73" max="73"/>
+    <col width="10" customWidth="1" min="73" max="73"/>
     <col width="30" customWidth="1" min="74" max="74"/>
     <col width="30" customWidth="1" min="75" max="75"/>
     <col width="30" customWidth="1" min="76" max="76"/>
@@ -462,16 +459,16 @@
     <col width="30" customWidth="1" min="79" max="79"/>
     <col width="30" customWidth="1" min="80" max="80"/>
     <col width="30" customWidth="1" min="81" max="81"/>
-    <col width="30" customWidth="1" min="82" max="82"/>
+    <col width="10" customWidth="1" min="82" max="82"/>
     <col width="30" customWidth="1" min="83" max="83"/>
     <col width="30" customWidth="1" min="84" max="84"/>
     <col width="30" customWidth="1" min="85" max="85"/>
-    <col width="10" customWidth="1" min="86" max="86"/>
+    <col width="30" customWidth="1" min="86" max="86"/>
     <col width="30" customWidth="1" min="87" max="87"/>
     <col width="30" customWidth="1" min="88" max="88"/>
     <col width="30" customWidth="1" min="89" max="89"/>
     <col width="30" customWidth="1" min="90" max="90"/>
-    <col width="30" customWidth="1" min="91" max="91"/>
+    <col width="10" customWidth="1" min="91" max="91"/>
     <col width="30" customWidth="1" min="92" max="92"/>
     <col width="30" customWidth="1" min="93" max="93"/>
     <col width="30" customWidth="1" min="94" max="94"/>
@@ -480,94 +477,6 @@
     <col width="30" customWidth="1" min="97" max="97"/>
     <col width="30" customWidth="1" min="98" max="98"/>
     <col width="30" customWidth="1" min="99" max="99"/>
-    <col width="30" customWidth="1" min="100" max="100"/>
-    <col width="30" customWidth="1" min="101" max="101"/>
-    <col width="30" customWidth="1" min="102" max="102"/>
-    <col width="10" customWidth="1" min="103" max="103"/>
-    <col width="30" customWidth="1" min="104" max="104"/>
-    <col width="30" customWidth="1" min="105" max="105"/>
-    <col width="30" customWidth="1" min="106" max="106"/>
-    <col width="30" customWidth="1" min="107" max="107"/>
-    <col width="30" customWidth="1" min="108" max="108"/>
-    <col width="30" customWidth="1" min="109" max="109"/>
-    <col width="30" customWidth="1" min="110" max="110"/>
-    <col width="30" customWidth="1" min="111" max="111"/>
-    <col width="30" customWidth="1" min="112" max="112"/>
-    <col width="30" customWidth="1" min="113" max="113"/>
-    <col width="30" customWidth="1" min="114" max="114"/>
-    <col width="30" customWidth="1" min="115" max="115"/>
-    <col width="30" customWidth="1" min="116" max="116"/>
-    <col width="30" customWidth="1" min="117" max="117"/>
-    <col width="30" customWidth="1" min="118" max="118"/>
-    <col width="30" customWidth="1" min="119" max="119"/>
-    <col width="10" customWidth="1" min="120" max="120"/>
-    <col width="30" customWidth="1" min="121" max="121"/>
-    <col width="30" customWidth="1" min="122" max="122"/>
-    <col width="30" customWidth="1" min="123" max="123"/>
-    <col width="30" customWidth="1" min="124" max="124"/>
-    <col width="30" customWidth="1" min="125" max="125"/>
-    <col width="30" customWidth="1" min="126" max="126"/>
-    <col width="30" customWidth="1" min="127" max="127"/>
-    <col width="30" customWidth="1" min="128" max="128"/>
-    <col width="30" customWidth="1" min="129" max="129"/>
-    <col width="30" customWidth="1" min="130" max="130"/>
-    <col width="30" customWidth="1" min="131" max="131"/>
-    <col width="30" customWidth="1" min="132" max="132"/>
-    <col width="30" customWidth="1" min="133" max="133"/>
-    <col width="30" customWidth="1" min="134" max="134"/>
-    <col width="30" customWidth="1" min="135" max="135"/>
-    <col width="30" customWidth="1" min="136" max="136"/>
-    <col width="10" customWidth="1" min="137" max="137"/>
-    <col width="30" customWidth="1" min="138" max="138"/>
-    <col width="30" customWidth="1" min="139" max="139"/>
-    <col width="30" customWidth="1" min="140" max="140"/>
-    <col width="30" customWidth="1" min="141" max="141"/>
-    <col width="30" customWidth="1" min="142" max="142"/>
-    <col width="30" customWidth="1" min="143" max="143"/>
-    <col width="30" customWidth="1" min="144" max="144"/>
-    <col width="30" customWidth="1" min="145" max="145"/>
-    <col width="30" customWidth="1" min="146" max="146"/>
-    <col width="30" customWidth="1" min="147" max="147"/>
-    <col width="30" customWidth="1" min="148" max="148"/>
-    <col width="30" customWidth="1" min="149" max="149"/>
-    <col width="30" customWidth="1" min="150" max="150"/>
-    <col width="30" customWidth="1" min="151" max="151"/>
-    <col width="30" customWidth="1" min="152" max="152"/>
-    <col width="30" customWidth="1" min="153" max="153"/>
-    <col width="10" customWidth="1" min="154" max="154"/>
-    <col width="30" customWidth="1" min="155" max="155"/>
-    <col width="30" customWidth="1" min="156" max="156"/>
-    <col width="30" customWidth="1" min="157" max="157"/>
-    <col width="30" customWidth="1" min="158" max="158"/>
-    <col width="30" customWidth="1" min="159" max="159"/>
-    <col width="30" customWidth="1" min="160" max="160"/>
-    <col width="30" customWidth="1" min="161" max="161"/>
-    <col width="30" customWidth="1" min="162" max="162"/>
-    <col width="30" customWidth="1" min="163" max="163"/>
-    <col width="30" customWidth="1" min="164" max="164"/>
-    <col width="30" customWidth="1" min="165" max="165"/>
-    <col width="30" customWidth="1" min="166" max="166"/>
-    <col width="30" customWidth="1" min="167" max="167"/>
-    <col width="30" customWidth="1" min="168" max="168"/>
-    <col width="30" customWidth="1" min="169" max="169"/>
-    <col width="30" customWidth="1" min="170" max="170"/>
-    <col width="10" customWidth="1" min="171" max="171"/>
-    <col width="30" customWidth="1" min="172" max="172"/>
-    <col width="30" customWidth="1" min="173" max="173"/>
-    <col width="30" customWidth="1" min="174" max="174"/>
-    <col width="30" customWidth="1" min="175" max="175"/>
-    <col width="30" customWidth="1" min="176" max="176"/>
-    <col width="30" customWidth="1" min="177" max="177"/>
-    <col width="30" customWidth="1" min="178" max="178"/>
-    <col width="30" customWidth="1" min="179" max="179"/>
-    <col width="30" customWidth="1" min="180" max="180"/>
-    <col width="30" customWidth="1" min="181" max="181"/>
-    <col width="30" customWidth="1" min="182" max="182"/>
-    <col width="30" customWidth="1" min="183" max="183"/>
-    <col width="30" customWidth="1" min="184" max="184"/>
-    <col width="30" customWidth="1" min="185" max="185"/>
-    <col width="30" customWidth="1" min="186" max="186"/>
-    <col width="30" customWidth="1" min="187" max="187"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -608,112 +517,42 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>ZP cash</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Compensations Total</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
           <t>Services Total</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Daily Gross</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>% Payout</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Adjusted Net (Month)</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Company cash</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Change (account +/-)</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Total Net (Month)</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Daily Adj Net</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>90000</v>
       </c>
       <c r="B2" t="n">
-        <v>502</v>
+        <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>526</v>
+        <v>785</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>293</v>
       </c>
       <c r="E2" t="n">
-        <v>451</v>
+        <v>692</v>
       </c>
       <c r="F2" t="n">
-        <v>-2087</v>
+        <v>6901</v>
       </c>
       <c r="G2" t="n">
-        <v>634</v>
+        <v>-547</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-722</v>
       </c>
       <c r="I2" t="n">
-        <v>203</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-589</v>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N2" t="n">
-        <v>-872</v>
-      </c>
-      <c r="O2" t="n">
-        <v>-77</v>
-      </c>
-      <c r="P2" t="n">
-        <v>-872</v>
-      </c>
-      <c r="Q2" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>823</v>
       </c>
     </row>
     <row r="3">
@@ -721,58 +560,28 @@
         <v>90001</v>
       </c>
       <c r="B3" t="n">
-        <v>212</v>
+        <v>-4126</v>
       </c>
       <c r="C3" t="n">
-        <v>1107</v>
+        <v>735</v>
       </c>
       <c r="D3" t="n">
-        <v>894</v>
+        <v>-878</v>
       </c>
       <c r="E3" t="n">
-        <v>527</v>
+        <v>230</v>
       </c>
       <c r="F3" t="n">
-        <v>-47</v>
+        <v>-356</v>
       </c>
       <c r="G3" t="n">
-        <v>1002</v>
+        <v>606</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-233</v>
       </c>
       <c r="I3" t="n">
-        <v>542</v>
-      </c>
-      <c r="J3" t="n">
-        <v>-392</v>
-      </c>
-      <c r="K3" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="M3" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
-        <v>-742</v>
-      </c>
-      <c r="O3" t="n">
-        <v>-179</v>
-      </c>
-      <c r="P3" t="n">
-        <v>-742</v>
-      </c>
-      <c r="Q3" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>-401</v>
       </c>
     </row>
     <row r="4">
@@ -780,58 +589,28 @@
         <v>90002</v>
       </c>
       <c r="B4" t="n">
-        <v>-1047</v>
+        <v>-420</v>
       </c>
       <c r="C4" t="n">
-        <v>676</v>
+        <v>-514</v>
       </c>
       <c r="D4" t="n">
-        <v>383</v>
+        <v>231</v>
       </c>
       <c r="E4" t="n">
-        <v>733</v>
+        <v>650</v>
       </c>
       <c r="F4" t="n">
-        <v>862</v>
+        <v>-6108</v>
       </c>
       <c r="G4" t="n">
-        <v>274</v>
+        <v>907</v>
       </c>
       <c r="H4" t="n">
-        <v>157</v>
+        <v>-440</v>
       </c>
       <c r="I4" t="n">
-        <v>429</v>
-      </c>
-      <c r="J4" t="n">
-        <v>-416</v>
-      </c>
-      <c r="K4" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="M4" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
-        <v>1063</v>
-      </c>
-      <c r="O4" t="n">
-        <v>96</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1220</v>
-      </c>
-      <c r="Q4" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>1141</v>
       </c>
     </row>
     <row r="5">
@@ -839,58 +618,28 @@
         <v>90003</v>
       </c>
       <c r="B5" t="n">
-        <v>-3214</v>
+        <v>405</v>
       </c>
       <c r="C5" t="n">
-        <v>-1520</v>
+        <v>187</v>
       </c>
       <c r="D5" t="n">
-        <v>1181</v>
+        <v>682</v>
       </c>
       <c r="E5" t="n">
-        <v>-2941</v>
+        <v>-216</v>
       </c>
       <c r="F5" t="n">
-        <v>161</v>
+        <v>486</v>
       </c>
       <c r="G5" t="n">
-        <v>9725</v>
+        <v>944</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>-393</v>
       </c>
       <c r="I5" t="n">
-        <v>310</v>
-      </c>
-      <c r="J5" t="n">
-        <v>-253</v>
-      </c>
-      <c r="K5" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="M5" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
-        <v>-142</v>
-      </c>
-      <c r="O5" t="n">
-        <v>-74</v>
-      </c>
-      <c r="P5" t="n">
-        <v>-142</v>
-      </c>
-      <c r="Q5" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>-628</v>
       </c>
     </row>
     <row r="6">
@@ -898,58 +647,28 @@
         <v>90004</v>
       </c>
       <c r="B6" t="n">
-        <v>-140</v>
+        <v>-395</v>
       </c>
       <c r="C6" t="n">
-        <v>415</v>
+        <v>-27</v>
       </c>
       <c r="D6" t="n">
-        <v>672</v>
+        <v>-109</v>
       </c>
       <c r="E6" t="n">
-        <v>149</v>
+        <v>97</v>
       </c>
       <c r="F6" t="n">
-        <v>970</v>
+        <v>1369</v>
       </c>
       <c r="G6" t="n">
-        <v>60</v>
+        <v>649</v>
       </c>
       <c r="H6" t="n">
-        <v>42</v>
+        <v>-347</v>
       </c>
       <c r="I6" t="n">
-        <v>396</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-834</v>
-      </c>
-      <c r="K6" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="M6" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
-        <v>198</v>
-      </c>
-      <c r="O6" t="n">
-        <v>16</v>
-      </c>
-      <c r="P6" t="n">
-        <v>240</v>
-      </c>
-      <c r="Q6" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>1405</v>
       </c>
     </row>
     <row r="7">
@@ -957,58 +676,28 @@
         <v>90005</v>
       </c>
       <c r="B7" t="n">
-        <v>1037</v>
+        <v>-456</v>
       </c>
       <c r="C7" t="n">
-        <v>-152</v>
+        <v>246</v>
       </c>
       <c r="D7" t="n">
-        <v>-6362</v>
+        <v>547</v>
       </c>
       <c r="E7" t="n">
-        <v>-2415</v>
+        <v>-5778</v>
       </c>
       <c r="F7" t="n">
-        <v>52</v>
+        <v>1117</v>
       </c>
       <c r="G7" t="n">
-        <v>4401</v>
+        <v>72</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>-286</v>
       </c>
       <c r="I7" t="n">
-        <v>657</v>
-      </c>
-      <c r="J7" t="n">
-        <v>-168</v>
-      </c>
-      <c r="K7" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="M7" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
-        <v>-135</v>
-      </c>
-      <c r="O7" t="n">
-        <v>-2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>-135</v>
-      </c>
-      <c r="Q7" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>1786</v>
       </c>
     </row>
     <row r="8">
@@ -1016,58 +705,28 @@
         <v>90006</v>
       </c>
       <c r="B8" t="n">
-        <v>752</v>
+        <v>-354</v>
       </c>
       <c r="C8" t="n">
-        <v>-2959</v>
+        <v>-7353</v>
       </c>
       <c r="D8" t="n">
-        <v>-2652</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>360</v>
+        <v>49</v>
       </c>
       <c r="F8" t="n">
-        <v>-147</v>
+        <v>7541</v>
       </c>
       <c r="G8" t="n">
-        <v>-1218</v>
+        <v>-35</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="I8" t="n">
-        <v>343</v>
-      </c>
-      <c r="J8" t="n">
-        <v>-519</v>
-      </c>
-      <c r="K8" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="M8" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
-        <v>-23</v>
-      </c>
-      <c r="O8" t="n">
-        <v>-112</v>
-      </c>
-      <c r="P8" t="n">
-        <v>-23</v>
-      </c>
-      <c r="Q8" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>711</v>
       </c>
     </row>
     <row r="9">
@@ -1075,58 +734,28 @@
         <v>90007</v>
       </c>
       <c r="B9" t="n">
-        <v>-163</v>
+        <v>930</v>
       </c>
       <c r="C9" t="n">
-        <v>212</v>
+        <v>1070</v>
       </c>
       <c r="D9" t="n">
-        <v>-111</v>
+        <v>24</v>
       </c>
       <c r="E9" t="n">
-        <v>-7744</v>
+        <v>8560</v>
       </c>
       <c r="F9" t="n">
-        <v>928</v>
+        <v>1199</v>
       </c>
       <c r="G9" t="n">
-        <v>296</v>
+        <v>987</v>
       </c>
       <c r="H9" t="n">
-        <v>206</v>
+        <v>-339</v>
       </c>
       <c r="I9" t="n">
-        <v>431</v>
-      </c>
-      <c r="J9" t="n">
-        <v>-437</v>
-      </c>
-      <c r="K9" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="M9" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
-        <v>638</v>
-      </c>
-      <c r="O9" t="n">
-        <v>23</v>
-      </c>
-      <c r="P9" t="n">
-        <v>844</v>
-      </c>
-      <c r="Q9" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>-713</v>
       </c>
     </row>
     <row r="10">
@@ -1134,58 +763,28 @@
         <v>90008</v>
       </c>
       <c r="B10" t="n">
-        <v>-658</v>
+        <v>-336</v>
       </c>
       <c r="C10" t="n">
-        <v>265</v>
+        <v>-126</v>
       </c>
       <c r="D10" t="n">
-        <v>767</v>
+        <v>693</v>
       </c>
       <c r="E10" t="n">
-        <v>688</v>
+        <v>7935</v>
       </c>
       <c r="F10" t="n">
-        <v>1664</v>
+        <v>673</v>
       </c>
       <c r="G10" t="n">
-        <v>482</v>
+        <v>425</v>
       </c>
       <c r="H10" t="n">
-        <v>480</v>
+        <v>-210</v>
       </c>
       <c r="I10" t="n">
-        <v>433</v>
-      </c>
-      <c r="J10" t="n">
-        <v>-534</v>
-      </c>
-      <c r="K10" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="M10" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
-        <v>957</v>
-      </c>
-      <c r="O10" t="n">
-        <v>65</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1437</v>
-      </c>
-      <c r="Q10" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>1339</v>
       </c>
     </row>
     <row r="11">
@@ -1193,58 +792,28 @@
         <v>90009</v>
       </c>
       <c r="B11" t="n">
-        <v>4930</v>
+        <v>-3134</v>
       </c>
       <c r="C11" t="n">
-        <v>-1970</v>
+        <v>-3026</v>
       </c>
       <c r="D11" t="n">
-        <v>334</v>
+        <v>-35</v>
       </c>
       <c r="E11" t="n">
-        <v>45</v>
+        <v>774</v>
       </c>
       <c r="F11" t="n">
-        <v>-481</v>
+        <v>-5159</v>
       </c>
       <c r="G11" t="n">
-        <v>3897</v>
+        <v>-270</v>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>-472</v>
       </c>
       <c r="I11" t="n">
-        <v>404</v>
-      </c>
-      <c r="J11" t="n">
-        <v>-736</v>
-      </c>
-      <c r="K11" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="M11" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
-        <v>1442</v>
-      </c>
-      <c r="O11" t="n">
-        <v>-114</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1448</v>
-      </c>
-      <c r="Q11" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>-831</v>
       </c>
     </row>
   </sheetData>

--- a/base/data_set/as_report.xlsx
+++ b/base/data_set/as_report.xlsx
@@ -64,12 +64,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -370,7 +373,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -387,16 +390,16 @@
     <col width="30" customWidth="1" min="7" max="7"/>
     <col width="30" customWidth="1" min="8" max="8"/>
     <col width="30" customWidth="1" min="9" max="9"/>
-    <col width="10" customWidth="1" min="10" max="10"/>
+    <col width="30" customWidth="1" min="10" max="10"/>
     <col width="30" customWidth="1" min="11" max="11"/>
     <col width="30" customWidth="1" min="12" max="12"/>
     <col width="30" customWidth="1" min="13" max="13"/>
-    <col width="30" customWidth="1" min="14" max="14"/>
+    <col width="10" customWidth="1" min="14" max="14"/>
     <col width="30" customWidth="1" min="15" max="15"/>
     <col width="30" customWidth="1" min="16" max="16"/>
     <col width="30" customWidth="1" min="17" max="17"/>
     <col width="30" customWidth="1" min="18" max="18"/>
-    <col width="10" customWidth="1" min="19" max="19"/>
+    <col width="30" customWidth="1" min="19" max="19"/>
     <col width="30" customWidth="1" min="20" max="20"/>
     <col width="30" customWidth="1" min="21" max="21"/>
     <col width="30" customWidth="1" min="22" max="22"/>
@@ -404,8 +407,8 @@
     <col width="30" customWidth="1" min="24" max="24"/>
     <col width="30" customWidth="1" min="25" max="25"/>
     <col width="30" customWidth="1" min="26" max="26"/>
-    <col width="30" customWidth="1" min="27" max="27"/>
-    <col width="10" customWidth="1" min="28" max="28"/>
+    <col width="10" customWidth="1" min="27" max="27"/>
+    <col width="30" customWidth="1" min="28" max="28"/>
     <col width="30" customWidth="1" min="29" max="29"/>
     <col width="30" customWidth="1" min="30" max="30"/>
     <col width="30" customWidth="1" min="31" max="31"/>
@@ -414,25 +417,25 @@
     <col width="30" customWidth="1" min="34" max="34"/>
     <col width="30" customWidth="1" min="35" max="35"/>
     <col width="30" customWidth="1" min="36" max="36"/>
-    <col width="10" customWidth="1" min="37" max="37"/>
+    <col width="30" customWidth="1" min="37" max="37"/>
     <col width="30" customWidth="1" min="38" max="38"/>
     <col width="30" customWidth="1" min="39" max="39"/>
-    <col width="30" customWidth="1" min="40" max="40"/>
+    <col width="10" customWidth="1" min="40" max="40"/>
     <col width="30" customWidth="1" min="41" max="41"/>
     <col width="30" customWidth="1" min="42" max="42"/>
     <col width="30" customWidth="1" min="43" max="43"/>
     <col width="30" customWidth="1" min="44" max="44"/>
     <col width="30" customWidth="1" min="45" max="45"/>
-    <col width="10" customWidth="1" min="46" max="46"/>
+    <col width="30" customWidth="1" min="46" max="46"/>
     <col width="30" customWidth="1" min="47" max="47"/>
     <col width="30" customWidth="1" min="48" max="48"/>
     <col width="30" customWidth="1" min="49" max="49"/>
     <col width="30" customWidth="1" min="50" max="50"/>
     <col width="30" customWidth="1" min="51" max="51"/>
     <col width="30" customWidth="1" min="52" max="52"/>
-    <col width="30" customWidth="1" min="53" max="53"/>
+    <col width="10" customWidth="1" min="53" max="53"/>
     <col width="30" customWidth="1" min="54" max="54"/>
-    <col width="10" customWidth="1" min="55" max="55"/>
+    <col width="30" customWidth="1" min="55" max="55"/>
     <col width="30" customWidth="1" min="56" max="56"/>
     <col width="30" customWidth="1" min="57" max="57"/>
     <col width="30" customWidth="1" min="58" max="58"/>
@@ -441,25 +444,25 @@
     <col width="30" customWidth="1" min="61" max="61"/>
     <col width="30" customWidth="1" min="62" max="62"/>
     <col width="30" customWidth="1" min="63" max="63"/>
-    <col width="10" customWidth="1" min="64" max="64"/>
+    <col width="30" customWidth="1" min="64" max="64"/>
     <col width="30" customWidth="1" min="65" max="65"/>
-    <col width="30" customWidth="1" min="66" max="66"/>
+    <col width="10" customWidth="1" min="66" max="66"/>
     <col width="30" customWidth="1" min="67" max="67"/>
     <col width="30" customWidth="1" min="68" max="68"/>
     <col width="30" customWidth="1" min="69" max="69"/>
     <col width="30" customWidth="1" min="70" max="70"/>
     <col width="30" customWidth="1" min="71" max="71"/>
     <col width="30" customWidth="1" min="72" max="72"/>
-    <col width="10" customWidth="1" min="73" max="73"/>
+    <col width="30" customWidth="1" min="73" max="73"/>
     <col width="30" customWidth="1" min="74" max="74"/>
     <col width="30" customWidth="1" min="75" max="75"/>
     <col width="30" customWidth="1" min="76" max="76"/>
     <col width="30" customWidth="1" min="77" max="77"/>
     <col width="30" customWidth="1" min="78" max="78"/>
-    <col width="30" customWidth="1" min="79" max="79"/>
+    <col width="10" customWidth="1" min="79" max="79"/>
     <col width="30" customWidth="1" min="80" max="80"/>
     <col width="30" customWidth="1" min="81" max="81"/>
-    <col width="10" customWidth="1" min="82" max="82"/>
+    <col width="30" customWidth="1" min="82" max="82"/>
     <col width="30" customWidth="1" min="83" max="83"/>
     <col width="30" customWidth="1" min="84" max="84"/>
     <col width="30" customWidth="1" min="85" max="85"/>
@@ -468,8 +471,8 @@
     <col width="30" customWidth="1" min="88" max="88"/>
     <col width="30" customWidth="1" min="89" max="89"/>
     <col width="30" customWidth="1" min="90" max="90"/>
-    <col width="10" customWidth="1" min="91" max="91"/>
-    <col width="30" customWidth="1" min="92" max="92"/>
+    <col width="30" customWidth="1" min="91" max="91"/>
+    <col width="10" customWidth="1" min="92" max="92"/>
     <col width="30" customWidth="1" min="93" max="93"/>
     <col width="30" customWidth="1" min="94" max="94"/>
     <col width="30" customWidth="1" min="95" max="95"/>
@@ -477,6 +480,50 @@
     <col width="30" customWidth="1" min="97" max="97"/>
     <col width="30" customWidth="1" min="98" max="98"/>
     <col width="30" customWidth="1" min="99" max="99"/>
+    <col width="30" customWidth="1" min="100" max="100"/>
+    <col width="30" customWidth="1" min="101" max="101"/>
+    <col width="30" customWidth="1" min="102" max="102"/>
+    <col width="30" customWidth="1" min="103" max="103"/>
+    <col width="30" customWidth="1" min="104" max="104"/>
+    <col width="10" customWidth="1" min="105" max="105"/>
+    <col width="30" customWidth="1" min="106" max="106"/>
+    <col width="30" customWidth="1" min="107" max="107"/>
+    <col width="30" customWidth="1" min="108" max="108"/>
+    <col width="30" customWidth="1" min="109" max="109"/>
+    <col width="30" customWidth="1" min="110" max="110"/>
+    <col width="30" customWidth="1" min="111" max="111"/>
+    <col width="30" customWidth="1" min="112" max="112"/>
+    <col width="30" customWidth="1" min="113" max="113"/>
+    <col width="30" customWidth="1" min="114" max="114"/>
+    <col width="30" customWidth="1" min="115" max="115"/>
+    <col width="30" customWidth="1" min="116" max="116"/>
+    <col width="30" customWidth="1" min="117" max="117"/>
+    <col width="10" customWidth="1" min="118" max="118"/>
+    <col width="30" customWidth="1" min="119" max="119"/>
+    <col width="30" customWidth="1" min="120" max="120"/>
+    <col width="30" customWidth="1" min="121" max="121"/>
+    <col width="30" customWidth="1" min="122" max="122"/>
+    <col width="30" customWidth="1" min="123" max="123"/>
+    <col width="30" customWidth="1" min="124" max="124"/>
+    <col width="30" customWidth="1" min="125" max="125"/>
+    <col width="30" customWidth="1" min="126" max="126"/>
+    <col width="30" customWidth="1" min="127" max="127"/>
+    <col width="30" customWidth="1" min="128" max="128"/>
+    <col width="30" customWidth="1" min="129" max="129"/>
+    <col width="30" customWidth="1" min="130" max="130"/>
+    <col width="10" customWidth="1" min="131" max="131"/>
+    <col width="30" customWidth="1" min="132" max="132"/>
+    <col width="30" customWidth="1" min="133" max="133"/>
+    <col width="30" customWidth="1" min="134" max="134"/>
+    <col width="30" customWidth="1" min="135" max="135"/>
+    <col width="30" customWidth="1" min="136" max="136"/>
+    <col width="30" customWidth="1" min="137" max="137"/>
+    <col width="30" customWidth="1" min="138" max="138"/>
+    <col width="30" customWidth="1" min="139" max="139"/>
+    <col width="30" customWidth="1" min="140" max="140"/>
+    <col width="30" customWidth="1" min="141" max="141"/>
+    <col width="30" customWidth="1" min="142" max="142"/>
+    <col width="30" customWidth="1" min="143" max="143"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -517,12 +564,32 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Services Total</t>
+          <t>Daily Unreal</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Adjusted Net (Month)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>Total Net (Month)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>% Payout</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Compensations Total</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>ZP cash</t>
         </is>
       </c>
     </row>
@@ -531,28 +598,44 @@
         <v>90000</v>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>-270</v>
       </c>
       <c r="C2" t="n">
-        <v>785</v>
+        <v>-133</v>
       </c>
       <c r="D2" t="n">
-        <v>293</v>
+        <v>-413</v>
       </c>
       <c r="E2" t="n">
-        <v>692</v>
+        <v>-305</v>
       </c>
       <c r="F2" t="n">
-        <v>6901</v>
+        <v>65</v>
       </c>
       <c r="G2" t="n">
-        <v>-547</v>
-      </c>
-      <c r="H2" t="n">
-        <v>-722</v>
-      </c>
-      <c r="I2" t="n">
-        <v>823</v>
+        <v>-3183</v>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>-773</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="L2" t="n">
+        <v>452</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -560,28 +643,44 @@
         <v>90001</v>
       </c>
       <c r="B3" t="n">
-        <v>-4126</v>
+        <v>702</v>
       </c>
       <c r="C3" t="n">
-        <v>735</v>
+        <v>170</v>
       </c>
       <c r="D3" t="n">
-        <v>-878</v>
+        <v>9028</v>
       </c>
       <c r="E3" t="n">
-        <v>230</v>
+        <v>789</v>
       </c>
       <c r="F3" t="n">
-        <v>-356</v>
+        <v>1011</v>
       </c>
       <c r="G3" t="n">
-        <v>606</v>
-      </c>
-      <c r="H3" t="n">
-        <v>-233</v>
-      </c>
-      <c r="I3" t="n">
-        <v>-401</v>
+        <v>177</v>
+      </c>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I3" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>592</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="L3" t="n">
+        <v>599</v>
+      </c>
+      <c r="M3" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="4">
@@ -589,28 +688,44 @@
         <v>90002</v>
       </c>
       <c r="B4" t="n">
-        <v>-420</v>
+        <v>13</v>
       </c>
       <c r="C4" t="n">
-        <v>-514</v>
+        <v>-18</v>
       </c>
       <c r="D4" t="n">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E4" t="n">
-        <v>650</v>
+        <v>1011</v>
       </c>
       <c r="F4" t="n">
-        <v>-6108</v>
+        <v>627</v>
       </c>
       <c r="G4" t="n">
-        <v>907</v>
-      </c>
-      <c r="H4" t="n">
-        <v>-440</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1141</v>
+        <v>990</v>
+      </c>
+      <c r="H4" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I4" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>1473</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="L4" t="n">
+        <v>383</v>
+      </c>
+      <c r="M4" t="n">
+        <v>256</v>
       </c>
     </row>
     <row r="5">
@@ -618,28 +733,44 @@
         <v>90003</v>
       </c>
       <c r="B5" t="n">
-        <v>405</v>
+        <v>-75</v>
       </c>
       <c r="C5" t="n">
-        <v>187</v>
+        <v>554</v>
       </c>
       <c r="D5" t="n">
-        <v>682</v>
+        <v>252</v>
       </c>
       <c r="E5" t="n">
-        <v>-216</v>
+        <v>1100</v>
       </c>
       <c r="F5" t="n">
-        <v>486</v>
+        <v>1151</v>
       </c>
       <c r="G5" t="n">
-        <v>944</v>
-      </c>
-      <c r="H5" t="n">
-        <v>-393</v>
-      </c>
-      <c r="I5" t="n">
-        <v>-628</v>
+        <v>1005</v>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>-873</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="L5" t="n">
+        <v>31</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -647,28 +778,44 @@
         <v>90004</v>
       </c>
       <c r="B6" t="n">
-        <v>-395</v>
+        <v>629</v>
       </c>
       <c r="C6" t="n">
-        <v>-27</v>
+        <v>965</v>
       </c>
       <c r="D6" t="n">
-        <v>-109</v>
+        <v>747</v>
       </c>
       <c r="E6" t="n">
-        <v>97</v>
+        <v>-2248</v>
       </c>
       <c r="F6" t="n">
-        <v>1369</v>
+        <v>-138</v>
       </c>
       <c r="G6" t="n">
-        <v>649</v>
-      </c>
-      <c r="H6" t="n">
-        <v>-347</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1405</v>
+        <v>395</v>
+      </c>
+      <c r="H6" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I6" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>165</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="L6" t="n">
+        <v>230</v>
+      </c>
+      <c r="M6" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="7">
@@ -676,28 +823,44 @@
         <v>90005</v>
       </c>
       <c r="B7" t="n">
-        <v>-456</v>
+        <v>-993</v>
       </c>
       <c r="C7" t="n">
-        <v>246</v>
+        <v>-926</v>
       </c>
       <c r="D7" t="n">
-        <v>547</v>
+        <v>386</v>
       </c>
       <c r="E7" t="n">
-        <v>-5778</v>
+        <v>786</v>
       </c>
       <c r="F7" t="n">
-        <v>1117</v>
+        <v>216</v>
       </c>
       <c r="G7" t="n">
-        <v>72</v>
-      </c>
-      <c r="H7" t="n">
-        <v>-286</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1786</v>
+        <v>282</v>
+      </c>
+      <c r="H7" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I7" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>568</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="L7" t="n">
+        <v>730</v>
+      </c>
+      <c r="M7" t="n">
+        <v>115</v>
       </c>
     </row>
     <row r="8">
@@ -705,28 +868,44 @@
         <v>90006</v>
       </c>
       <c r="B8" t="n">
-        <v>-354</v>
+        <v>-53</v>
       </c>
       <c r="C8" t="n">
-        <v>-7353</v>
+        <v>657</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>878</v>
       </c>
       <c r="E8" t="n">
-        <v>49</v>
+        <v>848</v>
       </c>
       <c r="F8" t="n">
-        <v>7541</v>
+        <v>401</v>
       </c>
       <c r="G8" t="n">
-        <v>-35</v>
-      </c>
-      <c r="H8" t="n">
-        <v>-600</v>
-      </c>
-      <c r="I8" t="n">
-        <v>711</v>
+        <v>474</v>
+      </c>
+      <c r="H8" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I8" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>1248</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="L8" t="n">
+        <v>665</v>
+      </c>
+      <c r="M8" t="n">
+        <v>224</v>
       </c>
     </row>
     <row r="9">
@@ -734,28 +913,44 @@
         <v>90007</v>
       </c>
       <c r="B9" t="n">
-        <v>930</v>
+        <v>2832</v>
       </c>
       <c r="C9" t="n">
-        <v>1070</v>
+        <v>-264</v>
       </c>
       <c r="D9" t="n">
+        <v>-7251</v>
+      </c>
+      <c r="E9" t="n">
+        <v>9066</v>
+      </c>
+      <c r="F9" t="n">
+        <v>307</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1170</v>
+      </c>
+      <c r="H9" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I9" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>795</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="L9" t="n">
+        <v>513</v>
+      </c>
+      <c r="M9" t="n">
         <v>24</v>
-      </c>
-      <c r="E9" t="n">
-        <v>8560</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1199</v>
-      </c>
-      <c r="G9" t="n">
-        <v>987</v>
-      </c>
-      <c r="H9" t="n">
-        <v>-339</v>
-      </c>
-      <c r="I9" t="n">
-        <v>-713</v>
       </c>
     </row>
     <row r="10">
@@ -763,28 +958,44 @@
         <v>90008</v>
       </c>
       <c r="B10" t="n">
-        <v>-336</v>
+        <v>-403</v>
       </c>
       <c r="C10" t="n">
-        <v>-126</v>
+        <v>4744</v>
       </c>
       <c r="D10" t="n">
-        <v>693</v>
+        <v>1052</v>
       </c>
       <c r="E10" t="n">
-        <v>7935</v>
+        <v>940</v>
       </c>
       <c r="F10" t="n">
-        <v>673</v>
+        <v>1650</v>
       </c>
       <c r="G10" t="n">
-        <v>425</v>
-      </c>
-      <c r="H10" t="n">
-        <v>-210</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1339</v>
+        <v>1038</v>
+      </c>
+      <c r="H10" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I10" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>1363</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="L10" t="n">
+        <v>175</v>
+      </c>
+      <c r="M10" t="n">
+        <v>502</v>
       </c>
     </row>
     <row r="11">
@@ -792,28 +1003,44 @@
         <v>90009</v>
       </c>
       <c r="B11" t="n">
-        <v>-3134</v>
+        <v>-6803</v>
       </c>
       <c r="C11" t="n">
-        <v>-3026</v>
+        <v>-4116</v>
       </c>
       <c r="D11" t="n">
-        <v>-35</v>
+        <v>-1785</v>
       </c>
       <c r="E11" t="n">
-        <v>774</v>
+        <v>1020</v>
       </c>
       <c r="F11" t="n">
-        <v>-5159</v>
+        <v>508</v>
       </c>
       <c r="G11" t="n">
-        <v>-270</v>
-      </c>
-      <c r="H11" t="n">
-        <v>-472</v>
-      </c>
-      <c r="I11" t="n">
-        <v>-831</v>
+        <v>630</v>
+      </c>
+      <c r="H11" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I11" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>277</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="L11" t="n">
+        <v>371</v>
+      </c>
+      <c r="M11" t="n">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/base/data_set/as_report.xlsx
+++ b/base/data_set/as_report.xlsx
@@ -564,32 +564,32 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>Services Total</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>Daily Unreal</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Adjusted Net (Month)</t>
-        </is>
-      </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Total Net (Month)</t>
+          <t>Daily Gross</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>% Payout</t>
+          <t>Office Fees</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Compensations Total</t>
+          <t>Social</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>ZP cash</t>
+          <t>Deadline</t>
         </is>
       </c>
     </row>
@@ -598,44 +598,44 @@
         <v>90000</v>
       </c>
       <c r="B2" t="n">
-        <v>-270</v>
+        <v>-61</v>
       </c>
       <c r="C2" t="n">
-        <v>-133</v>
+        <v>201</v>
       </c>
       <c r="D2" t="n">
-        <v>-413</v>
+        <v>870</v>
       </c>
       <c r="E2" t="n">
-        <v>-305</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>-3183</v>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>-8083</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-412</v>
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="J2" t="n">
-        <v>-773</v>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="K2" t="n">
-        <v>0.37</v>
+        <v>-522</v>
       </c>
       <c r="L2" t="n">
-        <v>452</v>
+        <v>74</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -643,44 +643,44 @@
         <v>90001</v>
       </c>
       <c r="B3" t="n">
-        <v>702</v>
+        <v>415</v>
       </c>
       <c r="C3" t="n">
-        <v>170</v>
+        <v>-1558</v>
       </c>
       <c r="D3" t="n">
-        <v>9028</v>
+        <v>792</v>
       </c>
       <c r="E3" t="n">
-        <v>789</v>
+        <v>825</v>
       </c>
       <c r="F3" t="n">
-        <v>1011</v>
+        <v>-97</v>
       </c>
       <c r="G3" t="n">
-        <v>177</v>
-      </c>
-      <c r="H3" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>1068</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-442</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="J3" t="n">
-        <v>592</v>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="K3" t="n">
-        <v>0.37</v>
+        <v>-172</v>
       </c>
       <c r="L3" t="n">
-        <v>599</v>
+        <v>11</v>
       </c>
       <c r="M3" t="n">
-        <v>73</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -688,44 +688,44 @@
         <v>90002</v>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>1299</v>
       </c>
       <c r="C4" t="n">
-        <v>-18</v>
+        <v>690</v>
       </c>
       <c r="D4" t="n">
-        <v>227</v>
+        <v>-2490</v>
       </c>
       <c r="E4" t="n">
-        <v>1011</v>
+        <v>-66</v>
       </c>
       <c r="F4" t="n">
-        <v>627</v>
+        <v>437</v>
       </c>
       <c r="G4" t="n">
-        <v>990</v>
-      </c>
-      <c r="H4" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>287</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-180</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="J4" t="n">
-        <v>1473</v>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="K4" t="n">
-        <v>0.37</v>
+        <v>-134</v>
       </c>
       <c r="L4" t="n">
-        <v>383</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>256</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -733,44 +733,44 @@
         <v>90003</v>
       </c>
       <c r="B5" t="n">
-        <v>-75</v>
+        <v>1342</v>
       </c>
       <c r="C5" t="n">
-        <v>554</v>
+        <v>534</v>
       </c>
       <c r="D5" t="n">
-        <v>252</v>
+        <v>-69</v>
       </c>
       <c r="E5" t="n">
-        <v>1100</v>
+        <v>875</v>
       </c>
       <c r="F5" t="n">
-        <v>1151</v>
+        <v>-276</v>
       </c>
       <c r="G5" t="n">
-        <v>1005</v>
-      </c>
-      <c r="H5" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>976</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-312</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="J5" t="n">
-        <v>-873</v>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="K5" t="n">
-        <v>0.37</v>
+        <v>-400</v>
       </c>
       <c r="L5" t="n">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -778,44 +778,44 @@
         <v>90004</v>
       </c>
       <c r="B6" t="n">
-        <v>629</v>
+        <v>-106</v>
       </c>
       <c r="C6" t="n">
-        <v>965</v>
+        <v>-68</v>
       </c>
       <c r="D6" t="n">
-        <v>747</v>
+        <v>672</v>
       </c>
       <c r="E6" t="n">
-        <v>-2248</v>
+        <v>490</v>
       </c>
       <c r="F6" t="n">
-        <v>-138</v>
+        <v>164</v>
       </c>
       <c r="G6" t="n">
-        <v>395</v>
-      </c>
-      <c r="H6" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>-6111</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-223</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="J6" t="n">
-        <v>165</v>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="K6" t="n">
-        <v>0.37</v>
+        <v>-411</v>
       </c>
       <c r="L6" t="n">
-        <v>230</v>
+        <v>60</v>
       </c>
       <c r="M6" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -823,44 +823,44 @@
         <v>90005</v>
       </c>
       <c r="B7" t="n">
-        <v>-993</v>
+        <v>711</v>
       </c>
       <c r="C7" t="n">
-        <v>-926</v>
+        <v>-242</v>
       </c>
       <c r="D7" t="n">
-        <v>386</v>
+        <v>1183</v>
       </c>
       <c r="E7" t="n">
-        <v>786</v>
+        <v>764</v>
       </c>
       <c r="F7" t="n">
-        <v>216</v>
+        <v>6193</v>
       </c>
       <c r="G7" t="n">
-        <v>282</v>
-      </c>
-      <c r="H7" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>80</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-13</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="J7" t="n">
-        <v>568</v>
+      <c r="J7" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="K7" t="n">
-        <v>0.37</v>
+        <v>-493</v>
       </c>
       <c r="L7" t="n">
-        <v>730</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>115</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -868,44 +868,44 @@
         <v>90006</v>
       </c>
       <c r="B8" t="n">
-        <v>-53</v>
+        <v>747</v>
       </c>
       <c r="C8" t="n">
-        <v>657</v>
+        <v>-44</v>
       </c>
       <c r="D8" t="n">
-        <v>878</v>
+        <v>772</v>
       </c>
       <c r="E8" t="n">
-        <v>848</v>
+        <v>165</v>
       </c>
       <c r="F8" t="n">
-        <v>401</v>
+        <v>328</v>
       </c>
       <c r="G8" t="n">
-        <v>474</v>
-      </c>
-      <c r="H8" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>202</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-490</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="J8" t="n">
-        <v>1248</v>
+      <c r="J8" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="K8" t="n">
-        <v>0.37</v>
+        <v>-128</v>
       </c>
       <c r="L8" t="n">
-        <v>665</v>
+        <v>109</v>
       </c>
       <c r="M8" t="n">
-        <v>224</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -913,44 +913,44 @@
         <v>90007</v>
       </c>
       <c r="B9" t="n">
-        <v>2832</v>
+        <v>4282</v>
       </c>
       <c r="C9" t="n">
-        <v>-264</v>
+        <v>673</v>
       </c>
       <c r="D9" t="n">
-        <v>-7251</v>
+        <v>83</v>
       </c>
       <c r="E9" t="n">
-        <v>9066</v>
+        <v>513</v>
       </c>
       <c r="F9" t="n">
-        <v>307</v>
+        <v>264</v>
       </c>
       <c r="G9" t="n">
-        <v>1170</v>
-      </c>
-      <c r="H9" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>-876</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-374</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="J9" t="n">
-        <v>795</v>
+      <c r="J9" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="K9" t="n">
-        <v>0.37</v>
+        <v>-479</v>
       </c>
       <c r="L9" t="n">
-        <v>513</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -958,44 +958,44 @@
         <v>90008</v>
       </c>
       <c r="B10" t="n">
-        <v>-403</v>
+        <v>-491</v>
       </c>
       <c r="C10" t="n">
-        <v>4744</v>
+        <v>-388</v>
       </c>
       <c r="D10" t="n">
-        <v>1052</v>
+        <v>739</v>
       </c>
       <c r="E10" t="n">
-        <v>940</v>
+        <v>225</v>
       </c>
       <c r="F10" t="n">
-        <v>1650</v>
+        <v>92</v>
       </c>
       <c r="G10" t="n">
-        <v>1038</v>
-      </c>
-      <c r="H10" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>737</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-702</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="J10" t="n">
-        <v>1363</v>
+      <c r="J10" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="K10" t="n">
-        <v>0.37</v>
+        <v>-253</v>
       </c>
       <c r="L10" t="n">
-        <v>175</v>
+        <v>10</v>
       </c>
       <c r="M10" t="n">
-        <v>502</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1003,44 +1003,44 @@
         <v>90009</v>
       </c>
       <c r="B11" t="n">
-        <v>-6803</v>
+        <v>-3295</v>
       </c>
       <c r="C11" t="n">
-        <v>-4116</v>
+        <v>-148</v>
       </c>
       <c r="D11" t="n">
-        <v>-1785</v>
+        <v>2915</v>
       </c>
       <c r="E11" t="n">
-        <v>1020</v>
+        <v>1072</v>
       </c>
       <c r="F11" t="n">
-        <v>508</v>
+        <v>-1211</v>
       </c>
       <c r="G11" t="n">
-        <v>630</v>
-      </c>
-      <c r="H11" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>-8667</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-305</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="J11" t="n">
-        <v>277</v>
+      <c r="J11" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="K11" t="n">
-        <v>0.37</v>
+        <v>-196</v>
       </c>
       <c r="L11" t="n">
-        <v>371</v>
+        <v>416</v>
       </c>
       <c r="M11" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/base/data_set/as_report.xlsx
+++ b/base/data_set/as_report.xlsx
@@ -373,7 +373,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -393,8 +393,8 @@
     <col width="30" customWidth="1" min="10" max="10"/>
     <col width="30" customWidth="1" min="11" max="11"/>
     <col width="30" customWidth="1" min="12" max="12"/>
-    <col width="30" customWidth="1" min="13" max="13"/>
-    <col width="10" customWidth="1" min="14" max="14"/>
+    <col width="10" customWidth="1" min="13" max="13"/>
+    <col width="30" customWidth="1" min="14" max="14"/>
     <col width="30" customWidth="1" min="15" max="15"/>
     <col width="30" customWidth="1" min="16" max="16"/>
     <col width="30" customWidth="1" min="17" max="17"/>
@@ -405,9 +405,9 @@
     <col width="30" customWidth="1" min="22" max="22"/>
     <col width="30" customWidth="1" min="23" max="23"/>
     <col width="30" customWidth="1" min="24" max="24"/>
-    <col width="30" customWidth="1" min="25" max="25"/>
+    <col width="10" customWidth="1" min="25" max="25"/>
     <col width="30" customWidth="1" min="26" max="26"/>
-    <col width="10" customWidth="1" min="27" max="27"/>
+    <col width="30" customWidth="1" min="27" max="27"/>
     <col width="30" customWidth="1" min="28" max="28"/>
     <col width="30" customWidth="1" min="29" max="29"/>
     <col width="30" customWidth="1" min="30" max="30"/>
@@ -417,10 +417,10 @@
     <col width="30" customWidth="1" min="34" max="34"/>
     <col width="30" customWidth="1" min="35" max="35"/>
     <col width="30" customWidth="1" min="36" max="36"/>
-    <col width="30" customWidth="1" min="37" max="37"/>
+    <col width="10" customWidth="1" min="37" max="37"/>
     <col width="30" customWidth="1" min="38" max="38"/>
     <col width="30" customWidth="1" min="39" max="39"/>
-    <col width="10" customWidth="1" min="40" max="40"/>
+    <col width="30" customWidth="1" min="40" max="40"/>
     <col width="30" customWidth="1" min="41" max="41"/>
     <col width="30" customWidth="1" min="42" max="42"/>
     <col width="30" customWidth="1" min="43" max="43"/>
@@ -429,11 +429,11 @@
     <col width="30" customWidth="1" min="46" max="46"/>
     <col width="30" customWidth="1" min="47" max="47"/>
     <col width="30" customWidth="1" min="48" max="48"/>
-    <col width="30" customWidth="1" min="49" max="49"/>
+    <col width="10" customWidth="1" min="49" max="49"/>
     <col width="30" customWidth="1" min="50" max="50"/>
     <col width="30" customWidth="1" min="51" max="51"/>
     <col width="30" customWidth="1" min="52" max="52"/>
-    <col width="10" customWidth="1" min="53" max="53"/>
+    <col width="30" customWidth="1" min="53" max="53"/>
     <col width="30" customWidth="1" min="54" max="54"/>
     <col width="30" customWidth="1" min="55" max="55"/>
     <col width="30" customWidth="1" min="56" max="56"/>
@@ -441,43 +441,43 @@
     <col width="30" customWidth="1" min="58" max="58"/>
     <col width="30" customWidth="1" min="59" max="59"/>
     <col width="30" customWidth="1" min="60" max="60"/>
-    <col width="30" customWidth="1" min="61" max="61"/>
+    <col width="10" customWidth="1" min="61" max="61"/>
     <col width="30" customWidth="1" min="62" max="62"/>
     <col width="30" customWidth="1" min="63" max="63"/>
     <col width="30" customWidth="1" min="64" max="64"/>
     <col width="30" customWidth="1" min="65" max="65"/>
-    <col width="10" customWidth="1" min="66" max="66"/>
+    <col width="30" customWidth="1" min="66" max="66"/>
     <col width="30" customWidth="1" min="67" max="67"/>
     <col width="30" customWidth="1" min="68" max="68"/>
     <col width="30" customWidth="1" min="69" max="69"/>
     <col width="30" customWidth="1" min="70" max="70"/>
     <col width="30" customWidth="1" min="71" max="71"/>
     <col width="30" customWidth="1" min="72" max="72"/>
-    <col width="30" customWidth="1" min="73" max="73"/>
+    <col width="10" customWidth="1" min="73" max="73"/>
     <col width="30" customWidth="1" min="74" max="74"/>
     <col width="30" customWidth="1" min="75" max="75"/>
     <col width="30" customWidth="1" min="76" max="76"/>
     <col width="30" customWidth="1" min="77" max="77"/>
     <col width="30" customWidth="1" min="78" max="78"/>
-    <col width="10" customWidth="1" min="79" max="79"/>
+    <col width="30" customWidth="1" min="79" max="79"/>
     <col width="30" customWidth="1" min="80" max="80"/>
     <col width="30" customWidth="1" min="81" max="81"/>
     <col width="30" customWidth="1" min="82" max="82"/>
     <col width="30" customWidth="1" min="83" max="83"/>
     <col width="30" customWidth="1" min="84" max="84"/>
-    <col width="30" customWidth="1" min="85" max="85"/>
+    <col width="10" customWidth="1" min="85" max="85"/>
     <col width="30" customWidth="1" min="86" max="86"/>
     <col width="30" customWidth="1" min="87" max="87"/>
     <col width="30" customWidth="1" min="88" max="88"/>
     <col width="30" customWidth="1" min="89" max="89"/>
     <col width="30" customWidth="1" min="90" max="90"/>
     <col width="30" customWidth="1" min="91" max="91"/>
-    <col width="10" customWidth="1" min="92" max="92"/>
+    <col width="30" customWidth="1" min="92" max="92"/>
     <col width="30" customWidth="1" min="93" max="93"/>
     <col width="30" customWidth="1" min="94" max="94"/>
     <col width="30" customWidth="1" min="95" max="95"/>
     <col width="30" customWidth="1" min="96" max="96"/>
-    <col width="30" customWidth="1" min="97" max="97"/>
+    <col width="10" customWidth="1" min="97" max="97"/>
     <col width="30" customWidth="1" min="98" max="98"/>
     <col width="30" customWidth="1" min="99" max="99"/>
     <col width="30" customWidth="1" min="100" max="100"/>
@@ -485,11 +485,11 @@
     <col width="30" customWidth="1" min="102" max="102"/>
     <col width="30" customWidth="1" min="103" max="103"/>
     <col width="30" customWidth="1" min="104" max="104"/>
-    <col width="10" customWidth="1" min="105" max="105"/>
+    <col width="30" customWidth="1" min="105" max="105"/>
     <col width="30" customWidth="1" min="106" max="106"/>
     <col width="30" customWidth="1" min="107" max="107"/>
     <col width="30" customWidth="1" min="108" max="108"/>
-    <col width="30" customWidth="1" min="109" max="109"/>
+    <col width="10" customWidth="1" min="109" max="109"/>
     <col width="30" customWidth="1" min="110" max="110"/>
     <col width="30" customWidth="1" min="111" max="111"/>
     <col width="30" customWidth="1" min="112" max="112"/>
@@ -498,10 +498,10 @@
     <col width="30" customWidth="1" min="115" max="115"/>
     <col width="30" customWidth="1" min="116" max="116"/>
     <col width="30" customWidth="1" min="117" max="117"/>
-    <col width="10" customWidth="1" min="118" max="118"/>
+    <col width="30" customWidth="1" min="118" max="118"/>
     <col width="30" customWidth="1" min="119" max="119"/>
     <col width="30" customWidth="1" min="120" max="120"/>
-    <col width="30" customWidth="1" min="121" max="121"/>
+    <col width="10" customWidth="1" min="121" max="121"/>
     <col width="30" customWidth="1" min="122" max="122"/>
     <col width="30" customWidth="1" min="123" max="123"/>
     <col width="30" customWidth="1" min="124" max="124"/>
@@ -511,19 +511,8 @@
     <col width="30" customWidth="1" min="128" max="128"/>
     <col width="30" customWidth="1" min="129" max="129"/>
     <col width="30" customWidth="1" min="130" max="130"/>
-    <col width="10" customWidth="1" min="131" max="131"/>
+    <col width="30" customWidth="1" min="131" max="131"/>
     <col width="30" customWidth="1" min="132" max="132"/>
-    <col width="30" customWidth="1" min="133" max="133"/>
-    <col width="30" customWidth="1" min="134" max="134"/>
-    <col width="30" customWidth="1" min="135" max="135"/>
-    <col width="30" customWidth="1" min="136" max="136"/>
-    <col width="30" customWidth="1" min="137" max="137"/>
-    <col width="30" customWidth="1" min="138" max="138"/>
-    <col width="30" customWidth="1" min="139" max="139"/>
-    <col width="30" customWidth="1" min="140" max="140"/>
-    <col width="30" customWidth="1" min="141" max="141"/>
-    <col width="30" customWidth="1" min="142" max="142"/>
-    <col width="30" customWidth="1" min="143" max="143"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -564,32 +553,27 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>Unreal (Month)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>Services Total</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Daily Unreal</t>
-        </is>
-      </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Daily Gross</t>
+          <t>Withdrawal</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Office Fees</t>
+          <t>Total Net (Month)</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Social</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Deadline</t>
+          <t>Gross (Month)</t>
         </is>
       </c>
     </row>
@@ -598,44 +582,41 @@
         <v>90000</v>
       </c>
       <c r="B2" t="n">
-        <v>-61</v>
+        <v>906</v>
       </c>
       <c r="C2" t="n">
-        <v>201</v>
+        <v>820</v>
       </c>
       <c r="D2" t="n">
-        <v>870</v>
+        <v>-26</v>
       </c>
       <c r="E2" t="n">
-        <v>33</v>
+        <v>-104</v>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="G2" t="n">
-        <v>-8083</v>
-      </c>
-      <c r="H2" t="n">
-        <v>-412</v>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>310</v>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>-406</v>
+      </c>
+      <c r="J2" t="n">
+        <v>118</v>
       </c>
       <c r="K2" t="n">
-        <v>-522</v>
-      </c>
-      <c r="L2" t="n">
-        <v>74</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1</v>
+        <v>350</v>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -643,44 +624,41 @@
         <v>90001</v>
       </c>
       <c r="B3" t="n">
-        <v>415</v>
+        <v>-492</v>
       </c>
       <c r="C3" t="n">
-        <v>-1558</v>
+        <v>221</v>
       </c>
       <c r="D3" t="n">
-        <v>792</v>
+        <v>186</v>
       </c>
       <c r="E3" t="n">
-        <v>825</v>
+        <v>485</v>
       </c>
       <c r="F3" t="n">
-        <v>-97</v>
+        <v>-898</v>
       </c>
       <c r="G3" t="n">
-        <v>1068</v>
-      </c>
-      <c r="H3" t="n">
-        <v>-442</v>
-      </c>
-      <c r="I3" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J3" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>1195</v>
+      </c>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>-243</v>
+      </c>
+      <c r="J3" t="n">
+        <v>383</v>
       </c>
       <c r="K3" t="n">
-        <v>-172</v>
-      </c>
-      <c r="L3" t="n">
-        <v>11</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
+        <v>1324</v>
+      </c>
+      <c r="L3" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -688,44 +666,41 @@
         <v>90002</v>
       </c>
       <c r="B4" t="n">
-        <v>1299</v>
+        <v>655</v>
       </c>
       <c r="C4" t="n">
         <v>690</v>
       </c>
       <c r="D4" t="n">
-        <v>-2490</v>
+        <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>-66</v>
+        <v>-10397</v>
       </c>
       <c r="F4" t="n">
-        <v>437</v>
+        <v>340</v>
       </c>
       <c r="G4" t="n">
-        <v>287</v>
-      </c>
-      <c r="H4" t="n">
-        <v>-180</v>
-      </c>
-      <c r="I4" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J4" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>959</v>
+      </c>
+      <c r="H4" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>-168</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>-134</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
+        <v>-1000</v>
+      </c>
+      <c r="L4" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -733,44 +708,41 @@
         <v>90003</v>
       </c>
       <c r="B5" t="n">
-        <v>1342</v>
+        <v>-210</v>
       </c>
       <c r="C5" t="n">
-        <v>534</v>
+        <v>139</v>
       </c>
       <c r="D5" t="n">
-        <v>-69</v>
+        <v>884</v>
       </c>
       <c r="E5" t="n">
-        <v>875</v>
+        <v>906</v>
       </c>
       <c r="F5" t="n">
-        <v>-276</v>
+        <v>624</v>
       </c>
       <c r="G5" t="n">
-        <v>976</v>
-      </c>
-      <c r="H5" t="n">
-        <v>-312</v>
-      </c>
-      <c r="I5" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J5" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>10</v>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>-420</v>
+      </c>
+      <c r="J5" t="n">
+        <v>137</v>
       </c>
       <c r="K5" t="n">
-        <v>-400</v>
-      </c>
-      <c r="L5" t="n">
-        <v>68</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
+        <v>876</v>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -778,44 +750,41 @@
         <v>90004</v>
       </c>
       <c r="B6" t="n">
-        <v>-106</v>
+        <v>868</v>
       </c>
       <c r="C6" t="n">
-        <v>-68</v>
+        <v>214</v>
       </c>
       <c r="D6" t="n">
-        <v>672</v>
+        <v>-4914</v>
       </c>
       <c r="E6" t="n">
-        <v>490</v>
+        <v>-4267</v>
       </c>
       <c r="F6" t="n">
-        <v>164</v>
+        <v>-1</v>
       </c>
       <c r="G6" t="n">
-        <v>-6111</v>
-      </c>
-      <c r="H6" t="n">
-        <v>-223</v>
-      </c>
-      <c r="I6" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J6" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>14</v>
+      </c>
+      <c r="H6" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>-461</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>-411</v>
-      </c>
-      <c r="L6" t="n">
-        <v>60</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
+        <v>-658</v>
+      </c>
+      <c r="L6" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -823,44 +792,41 @@
         <v>90005</v>
       </c>
       <c r="B7" t="n">
-        <v>711</v>
+        <v>1337</v>
       </c>
       <c r="C7" t="n">
-        <v>-242</v>
+        <v>-8624</v>
       </c>
       <c r="D7" t="n">
-        <v>1183</v>
+        <v>-13</v>
       </c>
       <c r="E7" t="n">
-        <v>764</v>
+        <v>2270</v>
       </c>
       <c r="F7" t="n">
-        <v>6193</v>
+        <v>936</v>
       </c>
       <c r="G7" t="n">
-        <v>80</v>
-      </c>
-      <c r="H7" t="n">
-        <v>-13</v>
-      </c>
-      <c r="I7" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J7" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>820</v>
+      </c>
+      <c r="H7" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>-316</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>-493</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
+        <v>-405</v>
+      </c>
+      <c r="L7" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -868,44 +834,41 @@
         <v>90006</v>
       </c>
       <c r="B8" t="n">
-        <v>747</v>
+        <v>205</v>
       </c>
       <c r="C8" t="n">
-        <v>-44</v>
+        <v>268</v>
       </c>
       <c r="D8" t="n">
-        <v>772</v>
+        <v>620</v>
       </c>
       <c r="E8" t="n">
-        <v>165</v>
+        <v>256</v>
       </c>
       <c r="F8" t="n">
-        <v>328</v>
+        <v>101</v>
       </c>
       <c r="G8" t="n">
-        <v>202</v>
-      </c>
-      <c r="H8" t="n">
-        <v>-490</v>
-      </c>
-      <c r="I8" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J8" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>185</v>
+      </c>
+      <c r="H8" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>-430</v>
+      </c>
+      <c r="J8" t="n">
+        <v>145</v>
       </c>
       <c r="K8" t="n">
-        <v>-128</v>
-      </c>
-      <c r="L8" t="n">
-        <v>109</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
+        <v>1853</v>
+      </c>
+      <c r="L8" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -913,44 +876,41 @@
         <v>90007</v>
       </c>
       <c r="B9" t="n">
-        <v>4282</v>
+        <v>-1420</v>
       </c>
       <c r="C9" t="n">
-        <v>673</v>
+        <v>-270</v>
       </c>
       <c r="D9" t="n">
-        <v>83</v>
+        <v>480</v>
       </c>
       <c r="E9" t="n">
-        <v>513</v>
+        <v>754</v>
       </c>
       <c r="F9" t="n">
-        <v>264</v>
+        <v>1119</v>
       </c>
       <c r="G9" t="n">
-        <v>-876</v>
-      </c>
-      <c r="H9" t="n">
-        <v>-374</v>
-      </c>
-      <c r="I9" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J9" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>1747</v>
+      </c>
+      <c r="H9" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>-687</v>
+      </c>
+      <c r="J9" t="n">
+        <v>698</v>
       </c>
       <c r="K9" t="n">
-        <v>-479</v>
-      </c>
-      <c r="L9" t="n">
-        <v>4</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
+        <v>1959</v>
+      </c>
+      <c r="L9" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -958,44 +918,41 @@
         <v>90008</v>
       </c>
       <c r="B10" t="n">
-        <v>-491</v>
+        <v>440</v>
       </c>
       <c r="C10" t="n">
-        <v>-388</v>
+        <v>712</v>
       </c>
       <c r="D10" t="n">
-        <v>739</v>
+        <v>908</v>
       </c>
       <c r="E10" t="n">
-        <v>225</v>
+        <v>3630</v>
       </c>
       <c r="F10" t="n">
-        <v>92</v>
+        <v>770</v>
       </c>
       <c r="G10" t="n">
-        <v>737</v>
-      </c>
-      <c r="H10" t="n">
-        <v>-702</v>
-      </c>
-      <c r="I10" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J10" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>302</v>
+      </c>
+      <c r="H10" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>-462</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>-253</v>
-      </c>
-      <c r="L10" t="n">
-        <v>10</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
+        <v>-921</v>
+      </c>
+      <c r="L10" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1003,44 +960,41 @@
         <v>90009</v>
       </c>
       <c r="B11" t="n">
-        <v>-3295</v>
+        <v>499</v>
       </c>
       <c r="C11" t="n">
-        <v>-148</v>
+        <v>654</v>
       </c>
       <c r="D11" t="n">
-        <v>2915</v>
+        <v>3188</v>
       </c>
       <c r="E11" t="n">
-        <v>1072</v>
+        <v>7166</v>
       </c>
       <c r="F11" t="n">
-        <v>-1211</v>
+        <v>1457</v>
       </c>
       <c r="G11" t="n">
-        <v>-8667</v>
-      </c>
-      <c r="H11" t="n">
-        <v>-305</v>
-      </c>
-      <c r="I11" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J11" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>565</v>
+      </c>
+      <c r="H11" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>-143</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>-196</v>
-      </c>
-      <c r="L11" t="n">
-        <v>416</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
+        <v>-674</v>
+      </c>
+      <c r="L11" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/base/data_set/as_report.xlsx
+++ b/base/data_set/as_report.xlsx
@@ -373,7 +373,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -393,19 +393,19 @@
     <col width="30" customWidth="1" min="10" max="10"/>
     <col width="30" customWidth="1" min="11" max="11"/>
     <col width="30" customWidth="1" min="12" max="12"/>
-    <col width="10" customWidth="1" min="13" max="13"/>
+    <col width="30" customWidth="1" min="13" max="13"/>
     <col width="30" customWidth="1" min="14" max="14"/>
     <col width="30" customWidth="1" min="15" max="15"/>
     <col width="30" customWidth="1" min="16" max="16"/>
     <col width="30" customWidth="1" min="17" max="17"/>
     <col width="30" customWidth="1" min="18" max="18"/>
     <col width="30" customWidth="1" min="19" max="19"/>
-    <col width="30" customWidth="1" min="20" max="20"/>
+    <col width="10" customWidth="1" min="20" max="20"/>
     <col width="30" customWidth="1" min="21" max="21"/>
     <col width="30" customWidth="1" min="22" max="22"/>
     <col width="30" customWidth="1" min="23" max="23"/>
     <col width="30" customWidth="1" min="24" max="24"/>
-    <col width="10" customWidth="1" min="25" max="25"/>
+    <col width="30" customWidth="1" min="25" max="25"/>
     <col width="30" customWidth="1" min="26" max="26"/>
     <col width="30" customWidth="1" min="27" max="27"/>
     <col width="30" customWidth="1" min="28" max="28"/>
@@ -417,9 +417,9 @@
     <col width="30" customWidth="1" min="34" max="34"/>
     <col width="30" customWidth="1" min="35" max="35"/>
     <col width="30" customWidth="1" min="36" max="36"/>
-    <col width="10" customWidth="1" min="37" max="37"/>
+    <col width="30" customWidth="1" min="37" max="37"/>
     <col width="30" customWidth="1" min="38" max="38"/>
-    <col width="30" customWidth="1" min="39" max="39"/>
+    <col width="10" customWidth="1" min="39" max="39"/>
     <col width="30" customWidth="1" min="40" max="40"/>
     <col width="30" customWidth="1" min="41" max="41"/>
     <col width="30" customWidth="1" min="42" max="42"/>
@@ -429,7 +429,7 @@
     <col width="30" customWidth="1" min="46" max="46"/>
     <col width="30" customWidth="1" min="47" max="47"/>
     <col width="30" customWidth="1" min="48" max="48"/>
-    <col width="10" customWidth="1" min="49" max="49"/>
+    <col width="30" customWidth="1" min="49" max="49"/>
     <col width="30" customWidth="1" min="50" max="50"/>
     <col width="30" customWidth="1" min="51" max="51"/>
     <col width="30" customWidth="1" min="52" max="52"/>
@@ -438,10 +438,10 @@
     <col width="30" customWidth="1" min="55" max="55"/>
     <col width="30" customWidth="1" min="56" max="56"/>
     <col width="30" customWidth="1" min="57" max="57"/>
-    <col width="30" customWidth="1" min="58" max="58"/>
+    <col width="10" customWidth="1" min="58" max="58"/>
     <col width="30" customWidth="1" min="59" max="59"/>
     <col width="30" customWidth="1" min="60" max="60"/>
-    <col width="10" customWidth="1" min="61" max="61"/>
+    <col width="30" customWidth="1" min="61" max="61"/>
     <col width="30" customWidth="1" min="62" max="62"/>
     <col width="30" customWidth="1" min="63" max="63"/>
     <col width="30" customWidth="1" min="64" max="64"/>
@@ -453,11 +453,11 @@
     <col width="30" customWidth="1" min="70" max="70"/>
     <col width="30" customWidth="1" min="71" max="71"/>
     <col width="30" customWidth="1" min="72" max="72"/>
-    <col width="10" customWidth="1" min="73" max="73"/>
+    <col width="30" customWidth="1" min="73" max="73"/>
     <col width="30" customWidth="1" min="74" max="74"/>
     <col width="30" customWidth="1" min="75" max="75"/>
     <col width="30" customWidth="1" min="76" max="76"/>
-    <col width="30" customWidth="1" min="77" max="77"/>
+    <col width="10" customWidth="1" min="77" max="77"/>
     <col width="30" customWidth="1" min="78" max="78"/>
     <col width="30" customWidth="1" min="79" max="79"/>
     <col width="30" customWidth="1" min="80" max="80"/>
@@ -465,7 +465,7 @@
     <col width="30" customWidth="1" min="82" max="82"/>
     <col width="30" customWidth="1" min="83" max="83"/>
     <col width="30" customWidth="1" min="84" max="84"/>
-    <col width="10" customWidth="1" min="85" max="85"/>
+    <col width="30" customWidth="1" min="85" max="85"/>
     <col width="30" customWidth="1" min="86" max="86"/>
     <col width="30" customWidth="1" min="87" max="87"/>
     <col width="30" customWidth="1" min="88" max="88"/>
@@ -476,8 +476,8 @@
     <col width="30" customWidth="1" min="93" max="93"/>
     <col width="30" customWidth="1" min="94" max="94"/>
     <col width="30" customWidth="1" min="95" max="95"/>
-    <col width="30" customWidth="1" min="96" max="96"/>
-    <col width="10" customWidth="1" min="97" max="97"/>
+    <col width="10" customWidth="1" min="96" max="96"/>
+    <col width="30" customWidth="1" min="97" max="97"/>
     <col width="30" customWidth="1" min="98" max="98"/>
     <col width="30" customWidth="1" min="99" max="99"/>
     <col width="30" customWidth="1" min="100" max="100"/>
@@ -489,19 +489,19 @@
     <col width="30" customWidth="1" min="106" max="106"/>
     <col width="30" customWidth="1" min="107" max="107"/>
     <col width="30" customWidth="1" min="108" max="108"/>
-    <col width="10" customWidth="1" min="109" max="109"/>
+    <col width="30" customWidth="1" min="109" max="109"/>
     <col width="30" customWidth="1" min="110" max="110"/>
     <col width="30" customWidth="1" min="111" max="111"/>
     <col width="30" customWidth="1" min="112" max="112"/>
     <col width="30" customWidth="1" min="113" max="113"/>
     <col width="30" customWidth="1" min="114" max="114"/>
-    <col width="30" customWidth="1" min="115" max="115"/>
+    <col width="10" customWidth="1" min="115" max="115"/>
     <col width="30" customWidth="1" min="116" max="116"/>
     <col width="30" customWidth="1" min="117" max="117"/>
     <col width="30" customWidth="1" min="118" max="118"/>
     <col width="30" customWidth="1" min="119" max="119"/>
     <col width="30" customWidth="1" min="120" max="120"/>
-    <col width="10" customWidth="1" min="121" max="121"/>
+    <col width="30" customWidth="1" min="121" max="121"/>
     <col width="30" customWidth="1" min="122" max="122"/>
     <col width="30" customWidth="1" min="123" max="123"/>
     <col width="30" customWidth="1" min="124" max="124"/>
@@ -513,6 +513,83 @@
     <col width="30" customWidth="1" min="130" max="130"/>
     <col width="30" customWidth="1" min="131" max="131"/>
     <col width="30" customWidth="1" min="132" max="132"/>
+    <col width="30" customWidth="1" min="133" max="133"/>
+    <col width="10" customWidth="1" min="134" max="134"/>
+    <col width="30" customWidth="1" min="135" max="135"/>
+    <col width="30" customWidth="1" min="136" max="136"/>
+    <col width="30" customWidth="1" min="137" max="137"/>
+    <col width="30" customWidth="1" min="138" max="138"/>
+    <col width="30" customWidth="1" min="139" max="139"/>
+    <col width="30" customWidth="1" min="140" max="140"/>
+    <col width="30" customWidth="1" min="141" max="141"/>
+    <col width="30" customWidth="1" min="142" max="142"/>
+    <col width="30" customWidth="1" min="143" max="143"/>
+    <col width="30" customWidth="1" min="144" max="144"/>
+    <col width="30" customWidth="1" min="145" max="145"/>
+    <col width="30" customWidth="1" min="146" max="146"/>
+    <col width="30" customWidth="1" min="147" max="147"/>
+    <col width="30" customWidth="1" min="148" max="148"/>
+    <col width="30" customWidth="1" min="149" max="149"/>
+    <col width="30" customWidth="1" min="150" max="150"/>
+    <col width="30" customWidth="1" min="151" max="151"/>
+    <col width="30" customWidth="1" min="152" max="152"/>
+    <col width="10" customWidth="1" min="153" max="153"/>
+    <col width="30" customWidth="1" min="154" max="154"/>
+    <col width="30" customWidth="1" min="155" max="155"/>
+    <col width="30" customWidth="1" min="156" max="156"/>
+    <col width="30" customWidth="1" min="157" max="157"/>
+    <col width="30" customWidth="1" min="158" max="158"/>
+    <col width="30" customWidth="1" min="159" max="159"/>
+    <col width="30" customWidth="1" min="160" max="160"/>
+    <col width="30" customWidth="1" min="161" max="161"/>
+    <col width="30" customWidth="1" min="162" max="162"/>
+    <col width="30" customWidth="1" min="163" max="163"/>
+    <col width="30" customWidth="1" min="164" max="164"/>
+    <col width="30" customWidth="1" min="165" max="165"/>
+    <col width="30" customWidth="1" min="166" max="166"/>
+    <col width="30" customWidth="1" min="167" max="167"/>
+    <col width="30" customWidth="1" min="168" max="168"/>
+    <col width="30" customWidth="1" min="169" max="169"/>
+    <col width="30" customWidth="1" min="170" max="170"/>
+    <col width="30" customWidth="1" min="171" max="171"/>
+    <col width="10" customWidth="1" min="172" max="172"/>
+    <col width="30" customWidth="1" min="173" max="173"/>
+    <col width="30" customWidth="1" min="174" max="174"/>
+    <col width="30" customWidth="1" min="175" max="175"/>
+    <col width="30" customWidth="1" min="176" max="176"/>
+    <col width="30" customWidth="1" min="177" max="177"/>
+    <col width="30" customWidth="1" min="178" max="178"/>
+    <col width="30" customWidth="1" min="179" max="179"/>
+    <col width="30" customWidth="1" min="180" max="180"/>
+    <col width="30" customWidth="1" min="181" max="181"/>
+    <col width="30" customWidth="1" min="182" max="182"/>
+    <col width="30" customWidth="1" min="183" max="183"/>
+    <col width="30" customWidth="1" min="184" max="184"/>
+    <col width="30" customWidth="1" min="185" max="185"/>
+    <col width="30" customWidth="1" min="186" max="186"/>
+    <col width="30" customWidth="1" min="187" max="187"/>
+    <col width="30" customWidth="1" min="188" max="188"/>
+    <col width="30" customWidth="1" min="189" max="189"/>
+    <col width="30" customWidth="1" min="190" max="190"/>
+    <col width="10" customWidth="1" min="191" max="191"/>
+    <col width="30" customWidth="1" min="192" max="192"/>
+    <col width="30" customWidth="1" min="193" max="193"/>
+    <col width="30" customWidth="1" min="194" max="194"/>
+    <col width="30" customWidth="1" min="195" max="195"/>
+    <col width="30" customWidth="1" min="196" max="196"/>
+    <col width="30" customWidth="1" min="197" max="197"/>
+    <col width="30" customWidth="1" min="198" max="198"/>
+    <col width="30" customWidth="1" min="199" max="199"/>
+    <col width="30" customWidth="1" min="200" max="200"/>
+    <col width="30" customWidth="1" min="201" max="201"/>
+    <col width="30" customWidth="1" min="202" max="202"/>
+    <col width="30" customWidth="1" min="203" max="203"/>
+    <col width="30" customWidth="1" min="204" max="204"/>
+    <col width="30" customWidth="1" min="205" max="205"/>
+    <col width="30" customWidth="1" min="206" max="206"/>
+    <col width="30" customWidth="1" min="207" max="207"/>
+    <col width="30" customWidth="1" min="208" max="208"/>
+    <col width="30" customWidth="1" min="209" max="209"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -553,27 +630,62 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Unreal (Month)</t>
+          <t>Withdrawal</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Daily Unreal</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>% Payout</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Services Total</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Withdrawal</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Deadline</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Compensations Total</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Office Fees</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ZP cash</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Total Net (Month)</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Gross (Month)</t>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Daily Gross</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Change (account +/-)</t>
         </is>
       </c>
     </row>
@@ -582,41 +694,62 @@
         <v>90000</v>
       </c>
       <c r="B2" t="n">
-        <v>906</v>
+        <v>-11111111014</v>
       </c>
       <c r="C2" t="n">
-        <v>820</v>
+        <v>-202</v>
       </c>
       <c r="D2" t="n">
-        <v>-26</v>
+        <v>499</v>
       </c>
       <c r="E2" t="n">
-        <v>-104</v>
+        <v>301</v>
       </c>
       <c r="F2" t="n">
-        <v>112</v>
+        <v>-37</v>
       </c>
       <c r="G2" t="n">
-        <v>310</v>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>-406</v>
+        <v>574</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J2" t="n">
-        <v>118</v>
+        <v>0.37</v>
       </c>
       <c r="K2" t="n">
-        <v>350</v>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>-258</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>273</v>
+      </c>
+      <c r="N2" t="n">
+        <v>79</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-296</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-926</v>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S2" t="n">
+        <v>-81</v>
       </c>
     </row>
     <row r="3">
@@ -624,41 +757,62 @@
         <v>90001</v>
       </c>
       <c r="B3" t="n">
-        <v>-492</v>
+        <v>-3890</v>
       </c>
       <c r="C3" t="n">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D3" t="n">
-        <v>186</v>
+        <v>-82</v>
       </c>
       <c r="E3" t="n">
-        <v>485</v>
+        <v>3316</v>
       </c>
       <c r="F3" t="n">
-        <v>-898</v>
+        <v>1139</v>
       </c>
       <c r="G3" t="n">
-        <v>1195</v>
-      </c>
-      <c r="H3" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>-243</v>
+        <v>893</v>
+      </c>
+      <c r="H3" t="n">
+        <v>371</v>
+      </c>
+      <c r="I3" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J3" t="n">
-        <v>383</v>
+        <v>0.37</v>
       </c>
       <c r="K3" t="n">
-        <v>1324</v>
-      </c>
-      <c r="L3" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>-308</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>399</v>
+      </c>
+      <c r="N3" t="n">
+        <v>124</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-176</v>
+      </c>
+      <c r="P3" t="n">
+        <v>371</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1316</v>
+      </c>
+      <c r="R3" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S3" t="n">
+        <v>-35</v>
       </c>
     </row>
     <row r="4">
@@ -666,41 +820,62 @@
         <v>90002</v>
       </c>
       <c r="B4" t="n">
-        <v>655</v>
+        <v>301</v>
       </c>
       <c r="C4" t="n">
-        <v>690</v>
+        <v>-8834</v>
       </c>
       <c r="D4" t="n">
-        <v>16</v>
+        <v>909</v>
       </c>
       <c r="E4" t="n">
-        <v>-10397</v>
+        <v>15923</v>
       </c>
       <c r="F4" t="n">
-        <v>340</v>
+        <v>705</v>
       </c>
       <c r="G4" t="n">
-        <v>959</v>
-      </c>
-      <c r="H4" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>-168</v>
+        <v>-1934</v>
+      </c>
+      <c r="H4" t="n">
+        <v>271</v>
+      </c>
+      <c r="I4" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="K4" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="L4" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>-115</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>869</v>
+      </c>
+      <c r="N4" t="n">
+        <v>30</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-468</v>
+      </c>
+      <c r="P4" t="n">
+        <v>271</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1150</v>
+      </c>
+      <c r="R4" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S4" t="n">
+        <v>-91</v>
       </c>
     </row>
     <row r="5">
@@ -708,41 +883,62 @@
         <v>90003</v>
       </c>
       <c r="B5" t="n">
-        <v>-210</v>
+        <v>786</v>
       </c>
       <c r="C5" t="n">
-        <v>139</v>
+        <v>447</v>
       </c>
       <c r="D5" t="n">
-        <v>884</v>
+        <v>4084</v>
       </c>
       <c r="E5" t="n">
-        <v>906</v>
+        <v>8534</v>
       </c>
       <c r="F5" t="n">
-        <v>624</v>
+        <v>1100</v>
       </c>
       <c r="G5" t="n">
-        <v>10</v>
-      </c>
-      <c r="H5" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>-420</v>
+        <v>978</v>
+      </c>
+      <c r="H5" t="n">
+        <v>136</v>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J5" t="n">
-        <v>137</v>
+        <v>0.37</v>
       </c>
       <c r="K5" t="n">
-        <v>876</v>
-      </c>
-      <c r="L5" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>-531</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>635</v>
+      </c>
+      <c r="N5" t="n">
+        <v>193</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-373</v>
+      </c>
+      <c r="P5" t="n">
+        <v>136</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1110</v>
+      </c>
+      <c r="R5" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S5" t="n">
+        <v>-114</v>
       </c>
     </row>
     <row r="6">
@@ -750,41 +946,62 @@
         <v>90004</v>
       </c>
       <c r="B6" t="n">
-        <v>868</v>
+        <v>795</v>
       </c>
       <c r="C6" t="n">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="D6" t="n">
-        <v>-4914</v>
+        <v>849</v>
       </c>
       <c r="E6" t="n">
-        <v>-4267</v>
+        <v>459</v>
       </c>
       <c r="F6" t="n">
-        <v>-1</v>
+        <v>66</v>
       </c>
       <c r="G6" t="n">
-        <v>14</v>
-      </c>
-      <c r="H6" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>-461</v>
+        <v>31</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J6" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-413</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>574</v>
+      </c>
+      <c r="N6" t="n">
+        <v>66</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-506</v>
+      </c>
+      <c r="P6" t="n">
         <v>0</v>
       </c>
-      <c r="K6" t="n">
-        <v>-658</v>
-      </c>
-      <c r="L6" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="Q6" t="n">
+        <v>-860</v>
+      </c>
+      <c r="R6" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v>-153</v>
       </c>
     </row>
     <row r="7">
@@ -792,41 +1009,62 @@
         <v>90005</v>
       </c>
       <c r="B7" t="n">
-        <v>1337</v>
+        <v>-5754</v>
       </c>
       <c r="C7" t="n">
-        <v>-8624</v>
+        <v>712</v>
       </c>
       <c r="D7" t="n">
-        <v>-13</v>
+        <v>741</v>
       </c>
       <c r="E7" t="n">
-        <v>2270</v>
+        <v>2080</v>
       </c>
       <c r="F7" t="n">
-        <v>936</v>
+        <v>136</v>
       </c>
       <c r="G7" t="n">
-        <v>820</v>
-      </c>
-      <c r="H7" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>-316</v>
+        <v>360</v>
+      </c>
+      <c r="H7" t="n">
+        <v>38</v>
+      </c>
+      <c r="I7" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="K7" t="n">
-        <v>-405</v>
-      </c>
-      <c r="L7" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>-320</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>628</v>
+      </c>
+      <c r="N7" t="n">
+        <v>23</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-79</v>
+      </c>
+      <c r="P7" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1105</v>
+      </c>
+      <c r="R7" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S7" t="n">
+        <v>-4</v>
       </c>
     </row>
     <row r="8">
@@ -834,41 +1072,62 @@
         <v>90006</v>
       </c>
       <c r="B8" t="n">
-        <v>205</v>
+        <v>4729</v>
       </c>
       <c r="C8" t="n">
-        <v>268</v>
+        <v>210</v>
       </c>
       <c r="D8" t="n">
-        <v>620</v>
+        <v>-9099</v>
       </c>
       <c r="E8" t="n">
-        <v>256</v>
+        <v>781</v>
       </c>
       <c r="F8" t="n">
-        <v>101</v>
+        <v>-5448</v>
       </c>
       <c r="G8" t="n">
-        <v>185</v>
-      </c>
-      <c r="H8" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>-430</v>
+        <v>1305</v>
+      </c>
+      <c r="H8" t="n">
+        <v>222</v>
+      </c>
+      <c r="I8" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J8" t="n">
-        <v>145</v>
+        <v>0.37</v>
       </c>
       <c r="K8" t="n">
-        <v>1853</v>
-      </c>
-      <c r="L8" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>-227</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>474</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-226</v>
+      </c>
+      <c r="P8" t="n">
+        <v>222</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1977</v>
+      </c>
+      <c r="R8" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S8" t="n">
+        <v>183</v>
       </c>
     </row>
     <row r="9">
@@ -876,41 +1135,62 @@
         <v>90007</v>
       </c>
       <c r="B9" t="n">
-        <v>-1420</v>
+        <v>510</v>
       </c>
       <c r="C9" t="n">
-        <v>-270</v>
+        <v>211</v>
       </c>
       <c r="D9" t="n">
-        <v>480</v>
+        <v>602</v>
       </c>
       <c r="E9" t="n">
-        <v>754</v>
+        <v>-2486</v>
       </c>
       <c r="F9" t="n">
-        <v>1119</v>
+        <v>239</v>
       </c>
       <c r="G9" t="n">
-        <v>1747</v>
-      </c>
-      <c r="H9" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>-687</v>
+        <v>6752</v>
+      </c>
+      <c r="H9" t="n">
+        <v>334</v>
+      </c>
+      <c r="I9" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J9" t="n">
-        <v>698</v>
+        <v>0.37</v>
       </c>
       <c r="K9" t="n">
-        <v>1959</v>
-      </c>
-      <c r="L9" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>-298</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>606</v>
+      </c>
+      <c r="N9" t="n">
+        <v>190</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-372</v>
+      </c>
+      <c r="P9" t="n">
+        <v>334</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1483</v>
+      </c>
+      <c r="R9" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
+        <v>130</v>
       </c>
     </row>
     <row r="10">
@@ -918,41 +1198,62 @@
         <v>90008</v>
       </c>
       <c r="B10" t="n">
-        <v>440</v>
+        <v>-1172</v>
       </c>
       <c r="C10" t="n">
-        <v>712</v>
+        <v>-287</v>
       </c>
       <c r="D10" t="n">
-        <v>908</v>
+        <v>677</v>
       </c>
       <c r="E10" t="n">
-        <v>3630</v>
+        <v>969</v>
       </c>
       <c r="F10" t="n">
-        <v>770</v>
+        <v>320</v>
       </c>
       <c r="G10" t="n">
-        <v>302</v>
-      </c>
-      <c r="H10" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>-462</v>
+        <v>466</v>
+      </c>
+      <c r="H10" t="n">
+        <v>294</v>
+      </c>
+      <c r="I10" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="K10" t="n">
-        <v>-921</v>
-      </c>
-      <c r="L10" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>-504</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>205</v>
+      </c>
+      <c r="N10" t="n">
+        <v>84</v>
+      </c>
+      <c r="O10" t="n">
+        <v>-184</v>
+      </c>
+      <c r="P10" t="n">
+        <v>294</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1252</v>
+      </c>
+      <c r="R10" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
+        <v>141</v>
       </c>
     </row>
     <row r="11">
@@ -960,41 +1261,62 @@
         <v>90009</v>
       </c>
       <c r="B11" t="n">
-        <v>499</v>
+        <v>897</v>
       </c>
       <c r="C11" t="n">
-        <v>654</v>
+        <v>3195</v>
       </c>
       <c r="D11" t="n">
-        <v>3188</v>
+        <v>999</v>
       </c>
       <c r="E11" t="n">
-        <v>7166</v>
+        <v>678</v>
       </c>
       <c r="F11" t="n">
-        <v>1457</v>
+        <v>503</v>
       </c>
       <c r="G11" t="n">
-        <v>565</v>
-      </c>
-      <c r="H11" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v>-143</v>
+        <v>-761</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J11" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-240</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>322</v>
+      </c>
+      <c r="N11" t="n">
+        <v>18</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-35</v>
+      </c>
+      <c r="P11" t="n">
         <v>0</v>
       </c>
-      <c r="K11" t="n">
-        <v>-674</v>
-      </c>
-      <c r="L11" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="Q11" t="n">
+        <v>-781</v>
+      </c>
+      <c r="R11" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S11" t="n">
+        <v>-65</v>
       </c>
     </row>
   </sheetData>

--- a/base/data_set/as_report.xlsx
+++ b/base/data_set/as_report.xlsx
@@ -373,7 +373,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -400,13 +400,13 @@
     <col width="30" customWidth="1" min="17" max="17"/>
     <col width="30" customWidth="1" min="18" max="18"/>
     <col width="30" customWidth="1" min="19" max="19"/>
-    <col width="10" customWidth="1" min="20" max="20"/>
+    <col width="30" customWidth="1" min="20" max="20"/>
     <col width="30" customWidth="1" min="21" max="21"/>
     <col width="30" customWidth="1" min="22" max="22"/>
     <col width="30" customWidth="1" min="23" max="23"/>
     <col width="30" customWidth="1" min="24" max="24"/>
     <col width="30" customWidth="1" min="25" max="25"/>
-    <col width="30" customWidth="1" min="26" max="26"/>
+    <col width="10" customWidth="1" min="26" max="26"/>
     <col width="30" customWidth="1" min="27" max="27"/>
     <col width="30" customWidth="1" min="28" max="28"/>
     <col width="30" customWidth="1" min="29" max="29"/>
@@ -419,7 +419,7 @@
     <col width="30" customWidth="1" min="36" max="36"/>
     <col width="30" customWidth="1" min="37" max="37"/>
     <col width="30" customWidth="1" min="38" max="38"/>
-    <col width="10" customWidth="1" min="39" max="39"/>
+    <col width="30" customWidth="1" min="39" max="39"/>
     <col width="30" customWidth="1" min="40" max="40"/>
     <col width="30" customWidth="1" min="41" max="41"/>
     <col width="30" customWidth="1" min="42" max="42"/>
@@ -431,14 +431,14 @@
     <col width="30" customWidth="1" min="48" max="48"/>
     <col width="30" customWidth="1" min="49" max="49"/>
     <col width="30" customWidth="1" min="50" max="50"/>
-    <col width="30" customWidth="1" min="51" max="51"/>
+    <col width="10" customWidth="1" min="51" max="51"/>
     <col width="30" customWidth="1" min="52" max="52"/>
     <col width="30" customWidth="1" min="53" max="53"/>
     <col width="30" customWidth="1" min="54" max="54"/>
     <col width="30" customWidth="1" min="55" max="55"/>
     <col width="30" customWidth="1" min="56" max="56"/>
     <col width="30" customWidth="1" min="57" max="57"/>
-    <col width="10" customWidth="1" min="58" max="58"/>
+    <col width="30" customWidth="1" min="58" max="58"/>
     <col width="30" customWidth="1" min="59" max="59"/>
     <col width="30" customWidth="1" min="60" max="60"/>
     <col width="30" customWidth="1" min="61" max="61"/>
@@ -456,8 +456,8 @@
     <col width="30" customWidth="1" min="73" max="73"/>
     <col width="30" customWidth="1" min="74" max="74"/>
     <col width="30" customWidth="1" min="75" max="75"/>
-    <col width="30" customWidth="1" min="76" max="76"/>
-    <col width="10" customWidth="1" min="77" max="77"/>
+    <col width="10" customWidth="1" min="76" max="76"/>
+    <col width="30" customWidth="1" min="77" max="77"/>
     <col width="30" customWidth="1" min="78" max="78"/>
     <col width="30" customWidth="1" min="79" max="79"/>
     <col width="30" customWidth="1" min="80" max="80"/>
@@ -476,12 +476,12 @@
     <col width="30" customWidth="1" min="93" max="93"/>
     <col width="30" customWidth="1" min="94" max="94"/>
     <col width="30" customWidth="1" min="95" max="95"/>
-    <col width="10" customWidth="1" min="96" max="96"/>
+    <col width="30" customWidth="1" min="96" max="96"/>
     <col width="30" customWidth="1" min="97" max="97"/>
     <col width="30" customWidth="1" min="98" max="98"/>
     <col width="30" customWidth="1" min="99" max="99"/>
     <col width="30" customWidth="1" min="100" max="100"/>
-    <col width="30" customWidth="1" min="101" max="101"/>
+    <col width="10" customWidth="1" min="101" max="101"/>
     <col width="30" customWidth="1" min="102" max="102"/>
     <col width="30" customWidth="1" min="103" max="103"/>
     <col width="30" customWidth="1" min="104" max="104"/>
@@ -495,7 +495,7 @@
     <col width="30" customWidth="1" min="112" max="112"/>
     <col width="30" customWidth="1" min="113" max="113"/>
     <col width="30" customWidth="1" min="114" max="114"/>
-    <col width="10" customWidth="1" min="115" max="115"/>
+    <col width="30" customWidth="1" min="115" max="115"/>
     <col width="30" customWidth="1" min="116" max="116"/>
     <col width="30" customWidth="1" min="117" max="117"/>
     <col width="30" customWidth="1" min="118" max="118"/>
@@ -506,7 +506,7 @@
     <col width="30" customWidth="1" min="123" max="123"/>
     <col width="30" customWidth="1" min="124" max="124"/>
     <col width="30" customWidth="1" min="125" max="125"/>
-    <col width="30" customWidth="1" min="126" max="126"/>
+    <col width="10" customWidth="1" min="126" max="126"/>
     <col width="30" customWidth="1" min="127" max="127"/>
     <col width="30" customWidth="1" min="128" max="128"/>
     <col width="30" customWidth="1" min="129" max="129"/>
@@ -514,7 +514,7 @@
     <col width="30" customWidth="1" min="131" max="131"/>
     <col width="30" customWidth="1" min="132" max="132"/>
     <col width="30" customWidth="1" min="133" max="133"/>
-    <col width="10" customWidth="1" min="134" max="134"/>
+    <col width="30" customWidth="1" min="134" max="134"/>
     <col width="30" customWidth="1" min="135" max="135"/>
     <col width="30" customWidth="1" min="136" max="136"/>
     <col width="30" customWidth="1" min="137" max="137"/>
@@ -531,9 +531,9 @@
     <col width="30" customWidth="1" min="148" max="148"/>
     <col width="30" customWidth="1" min="149" max="149"/>
     <col width="30" customWidth="1" min="150" max="150"/>
-    <col width="30" customWidth="1" min="151" max="151"/>
+    <col width="10" customWidth="1" min="151" max="151"/>
     <col width="30" customWidth="1" min="152" max="152"/>
-    <col width="10" customWidth="1" min="153" max="153"/>
+    <col width="30" customWidth="1" min="153" max="153"/>
     <col width="30" customWidth="1" min="154" max="154"/>
     <col width="30" customWidth="1" min="155" max="155"/>
     <col width="30" customWidth="1" min="156" max="156"/>
@@ -552,11 +552,11 @@
     <col width="30" customWidth="1" min="169" max="169"/>
     <col width="30" customWidth="1" min="170" max="170"/>
     <col width="30" customWidth="1" min="171" max="171"/>
-    <col width="10" customWidth="1" min="172" max="172"/>
+    <col width="30" customWidth="1" min="172" max="172"/>
     <col width="30" customWidth="1" min="173" max="173"/>
     <col width="30" customWidth="1" min="174" max="174"/>
     <col width="30" customWidth="1" min="175" max="175"/>
-    <col width="30" customWidth="1" min="176" max="176"/>
+    <col width="10" customWidth="1" min="176" max="176"/>
     <col width="30" customWidth="1" min="177" max="177"/>
     <col width="30" customWidth="1" min="178" max="178"/>
     <col width="30" customWidth="1" min="179" max="179"/>
@@ -571,7 +571,7 @@
     <col width="30" customWidth="1" min="188" max="188"/>
     <col width="30" customWidth="1" min="189" max="189"/>
     <col width="30" customWidth="1" min="190" max="190"/>
-    <col width="10" customWidth="1" min="191" max="191"/>
+    <col width="30" customWidth="1" min="191" max="191"/>
     <col width="30" customWidth="1" min="192" max="192"/>
     <col width="30" customWidth="1" min="193" max="193"/>
     <col width="30" customWidth="1" min="194" max="194"/>
@@ -581,7 +581,7 @@
     <col width="30" customWidth="1" min="198" max="198"/>
     <col width="30" customWidth="1" min="199" max="199"/>
     <col width="30" customWidth="1" min="200" max="200"/>
-    <col width="30" customWidth="1" min="201" max="201"/>
+    <col width="10" customWidth="1" min="201" max="201"/>
     <col width="30" customWidth="1" min="202" max="202"/>
     <col width="30" customWidth="1" min="203" max="203"/>
     <col width="30" customWidth="1" min="204" max="204"/>
@@ -590,6 +590,72 @@
     <col width="30" customWidth="1" min="207" max="207"/>
     <col width="30" customWidth="1" min="208" max="208"/>
     <col width="30" customWidth="1" min="209" max="209"/>
+    <col width="30" customWidth="1" min="210" max="210"/>
+    <col width="30" customWidth="1" min="211" max="211"/>
+    <col width="30" customWidth="1" min="212" max="212"/>
+    <col width="30" customWidth="1" min="213" max="213"/>
+    <col width="30" customWidth="1" min="214" max="214"/>
+    <col width="30" customWidth="1" min="215" max="215"/>
+    <col width="30" customWidth="1" min="216" max="216"/>
+    <col width="30" customWidth="1" min="217" max="217"/>
+    <col width="30" customWidth="1" min="218" max="218"/>
+    <col width="30" customWidth="1" min="219" max="219"/>
+    <col width="30" customWidth="1" min="220" max="220"/>
+    <col width="30" customWidth="1" min="221" max="221"/>
+    <col width="30" customWidth="1" min="222" max="222"/>
+    <col width="30" customWidth="1" min="223" max="223"/>
+    <col width="30" customWidth="1" min="224" max="224"/>
+    <col width="30" customWidth="1" min="225" max="225"/>
+    <col width="10" customWidth="1" min="226" max="226"/>
+    <col width="30" customWidth="1" min="227" max="227"/>
+    <col width="30" customWidth="1" min="228" max="228"/>
+    <col width="30" customWidth="1" min="229" max="229"/>
+    <col width="30" customWidth="1" min="230" max="230"/>
+    <col width="30" customWidth="1" min="231" max="231"/>
+    <col width="30" customWidth="1" min="232" max="232"/>
+    <col width="30" customWidth="1" min="233" max="233"/>
+    <col width="30" customWidth="1" min="234" max="234"/>
+    <col width="30" customWidth="1" min="235" max="235"/>
+    <col width="30" customWidth="1" min="236" max="236"/>
+    <col width="30" customWidth="1" min="237" max="237"/>
+    <col width="30" customWidth="1" min="238" max="238"/>
+    <col width="30" customWidth="1" min="239" max="239"/>
+    <col width="30" customWidth="1" min="240" max="240"/>
+    <col width="30" customWidth="1" min="241" max="241"/>
+    <col width="30" customWidth="1" min="242" max="242"/>
+    <col width="30" customWidth="1" min="243" max="243"/>
+    <col width="30" customWidth="1" min="244" max="244"/>
+    <col width="30" customWidth="1" min="245" max="245"/>
+    <col width="30" customWidth="1" min="246" max="246"/>
+    <col width="30" customWidth="1" min="247" max="247"/>
+    <col width="30" customWidth="1" min="248" max="248"/>
+    <col width="30" customWidth="1" min="249" max="249"/>
+    <col width="30" customWidth="1" min="250" max="250"/>
+    <col width="10" customWidth="1" min="251" max="251"/>
+    <col width="30" customWidth="1" min="252" max="252"/>
+    <col width="30" customWidth="1" min="253" max="253"/>
+    <col width="30" customWidth="1" min="254" max="254"/>
+    <col width="30" customWidth="1" min="255" max="255"/>
+    <col width="30" customWidth="1" min="256" max="256"/>
+    <col width="30" customWidth="1" min="257" max="257"/>
+    <col width="30" customWidth="1" min="258" max="258"/>
+    <col width="30" customWidth="1" min="259" max="259"/>
+    <col width="30" customWidth="1" min="260" max="260"/>
+    <col width="30" customWidth="1" min="261" max="261"/>
+    <col width="30" customWidth="1" min="262" max="262"/>
+    <col width="30" customWidth="1" min="263" max="263"/>
+    <col width="30" customWidth="1" min="264" max="264"/>
+    <col width="30" customWidth="1" min="265" max="265"/>
+    <col width="30" customWidth="1" min="266" max="266"/>
+    <col width="30" customWidth="1" min="267" max="267"/>
+    <col width="30" customWidth="1" min="268" max="268"/>
+    <col width="30" customWidth="1" min="269" max="269"/>
+    <col width="30" customWidth="1" min="270" max="270"/>
+    <col width="30" customWidth="1" min="271" max="271"/>
+    <col width="30" customWidth="1" min="272" max="272"/>
+    <col width="30" customWidth="1" min="273" max="273"/>
+    <col width="30" customWidth="1" min="274" max="274"/>
+    <col width="30" customWidth="1" min="275" max="275"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -610,82 +676,112 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Account</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>SmartPoints</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Investments</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Withdrawal</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Account</t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>Daily Unreal</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>ZP cash</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>Withdrawal</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Daily Unreal</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Daily Adj Net</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Total Net (Month)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Unreal (Month)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Compensations Total</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Services Total</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Company cash</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Change (account +/-)</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Prev month balance (podushka)</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Office Fees</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Deadline</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Gross (Month)</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>% Payout</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Services Total</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Deadline</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Compensations Total</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Social</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Office Fees</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>ZP cash</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Total Net (Month)</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Daily Gross</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Change (account +/-)</t>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Adjusted Net (Month)</t>
         </is>
       </c>
     </row>
@@ -694,62 +790,88 @@
         <v>90000</v>
       </c>
       <c r="B2" t="n">
-        <v>-11111111014</v>
+        <v>-1035</v>
       </c>
       <c r="C2" t="n">
-        <v>-202</v>
+        <v>417</v>
       </c>
       <c r="D2" t="n">
-        <v>499</v>
+        <v>763</v>
       </c>
       <c r="E2" t="n">
-        <v>301</v>
+        <v>-372</v>
       </c>
       <c r="F2" t="n">
-        <v>-37</v>
+        <v>-11111110384</v>
       </c>
       <c r="G2" t="n">
-        <v>574</v>
-      </c>
-      <c r="H2" t="n">
+        <v>-11111111086.1111</v>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>-460</v>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>186</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-731</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-18</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1132</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-227</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W2" t="n">
         <v>0.37</v>
       </c>
-      <c r="K2" t="n">
-        <v>-258</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>273</v>
-      </c>
-      <c r="N2" t="n">
-        <v>79</v>
-      </c>
-      <c r="O2" t="n">
-        <v>-296</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>-926</v>
-      </c>
-      <c r="R2" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S2" t="n">
-        <v>-81</v>
+      <c r="X2" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y2" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -757,62 +879,88 @@
         <v>90001</v>
       </c>
       <c r="B3" t="n">
-        <v>-3890</v>
+        <v>894</v>
       </c>
       <c r="C3" t="n">
-        <v>211</v>
+        <v>-248</v>
       </c>
       <c r="D3" t="n">
-        <v>-82</v>
+        <v>9434</v>
       </c>
       <c r="E3" t="n">
-        <v>3316</v>
+        <v>-94</v>
       </c>
       <c r="F3" t="n">
-        <v>1139</v>
+        <v>667</v>
       </c>
       <c r="G3" t="n">
-        <v>893</v>
-      </c>
-      <c r="H3" t="n">
-        <v>371</v>
-      </c>
-      <c r="I3" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>884</v>
+      </c>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>155</v>
       </c>
       <c r="J3" t="n">
+        <v>155</v>
+      </c>
+      <c r="K3" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>1439</v>
+      </c>
+      <c r="M3" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>335</v>
+      </c>
+      <c r="O3" t="n">
+        <v>14</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-185</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>266</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-111</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1650</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-240</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W3" t="n">
         <v>0.37</v>
       </c>
-      <c r="K3" t="n">
-        <v>-308</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="n">
-        <v>399</v>
-      </c>
-      <c r="N3" t="n">
-        <v>124</v>
-      </c>
-      <c r="O3" t="n">
-        <v>-176</v>
-      </c>
-      <c r="P3" t="n">
-        <v>371</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1316</v>
-      </c>
-      <c r="R3" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S3" t="n">
-        <v>-35</v>
+      <c r="X3" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y3" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -820,62 +968,88 @@
         <v>90002</v>
       </c>
       <c r="B4" t="n">
-        <v>301</v>
+        <v>-224</v>
       </c>
       <c r="C4" t="n">
-        <v>-8834</v>
+        <v>-1401</v>
       </c>
       <c r="D4" t="n">
-        <v>909</v>
+        <v>827</v>
       </c>
       <c r="E4" t="n">
-        <v>15923</v>
+        <v>543</v>
       </c>
       <c r="F4" t="n">
-        <v>705</v>
+        <v>636</v>
       </c>
       <c r="G4" t="n">
-        <v>-1934</v>
-      </c>
-      <c r="H4" t="n">
-        <v>271</v>
-      </c>
-      <c r="I4" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>889</v>
+      </c>
+      <c r="H4" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>244</v>
       </c>
       <c r="J4" t="n">
+        <v>244</v>
+      </c>
+      <c r="K4" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>1194</v>
+      </c>
+      <c r="M4" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>192</v>
+      </c>
+      <c r="O4" t="n">
+        <v>155</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-122</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>418</v>
+      </c>
+      <c r="R4" t="n">
+        <v>-28</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1853</v>
+      </c>
+      <c r="T4" t="n">
+        <v>-78</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W4" t="n">
         <v>0.37</v>
       </c>
-      <c r="K4" t="n">
-        <v>-115</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="n">
-        <v>869</v>
-      </c>
-      <c r="N4" t="n">
-        <v>30</v>
-      </c>
-      <c r="O4" t="n">
-        <v>-468</v>
-      </c>
-      <c r="P4" t="n">
-        <v>271</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1150</v>
-      </c>
-      <c r="R4" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S4" t="n">
-        <v>-91</v>
+      <c r="X4" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y4" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -883,62 +1057,88 @@
         <v>90003</v>
       </c>
       <c r="B5" t="n">
-        <v>786</v>
+        <v>-451</v>
       </c>
       <c r="C5" t="n">
-        <v>447</v>
+        <v>-323</v>
       </c>
       <c r="D5" t="n">
-        <v>4084</v>
+        <v>143</v>
       </c>
       <c r="E5" t="n">
-        <v>8534</v>
+        <v>-7997</v>
       </c>
       <c r="F5" t="n">
-        <v>1100</v>
+        <v>236</v>
       </c>
       <c r="G5" t="n">
-        <v>978</v>
-      </c>
-      <c r="H5" t="n">
-        <v>136</v>
-      </c>
-      <c r="I5" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>2584</v>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>459</v>
       </c>
       <c r="J5" t="n">
+        <v>459</v>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1550</v>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>416</v>
+      </c>
+      <c r="O5" t="n">
+        <v>417</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-392</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>784</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-175</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1162</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-391</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W5" t="n">
         <v>0.37</v>
       </c>
-      <c r="K5" t="n">
-        <v>-531</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="n">
-        <v>635</v>
-      </c>
-      <c r="N5" t="n">
-        <v>193</v>
-      </c>
-      <c r="O5" t="n">
-        <v>-373</v>
-      </c>
-      <c r="P5" t="n">
-        <v>136</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1110</v>
-      </c>
-      <c r="R5" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S5" t="n">
-        <v>-114</v>
+      <c r="X5" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y5" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -946,62 +1146,88 @@
         <v>90004</v>
       </c>
       <c r="B6" t="n">
-        <v>795</v>
+        <v>1208</v>
       </c>
       <c r="C6" t="n">
-        <v>198</v>
+        <v>-106</v>
       </c>
       <c r="D6" t="n">
-        <v>849</v>
+        <v>988</v>
       </c>
       <c r="E6" t="n">
-        <v>459</v>
+        <v>-11625</v>
       </c>
       <c r="F6" t="n">
-        <v>66</v>
+        <v>852</v>
       </c>
       <c r="G6" t="n">
-        <v>31</v>
-      </c>
-      <c r="H6" t="n">
+        <v>1171</v>
+      </c>
+      <c r="H6" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>-210</v>
+      </c>
+      <c r="M6" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>586</v>
+      </c>
+      <c r="O6" t="n">
+        <v>4</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-482</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>-39</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1298</v>
+      </c>
+      <c r="T6" t="n">
+        <v>-355</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W6" t="n">
         <v>0.37</v>
       </c>
-      <c r="K6" t="n">
-        <v>-413</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="n">
-        <v>574</v>
-      </c>
-      <c r="N6" t="n">
-        <v>66</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-506</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>-860</v>
-      </c>
-      <c r="R6" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S6" t="n">
-        <v>-153</v>
+      <c r="X6" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y6" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -1009,62 +1235,88 @@
         <v>90005</v>
       </c>
       <c r="B7" t="n">
-        <v>-5754</v>
+        <v>-3848</v>
       </c>
       <c r="C7" t="n">
-        <v>712</v>
+        <v>849</v>
       </c>
       <c r="D7" t="n">
-        <v>741</v>
+        <v>4035</v>
       </c>
       <c r="E7" t="n">
-        <v>2080</v>
+        <v>715</v>
       </c>
       <c r="F7" t="n">
-        <v>136</v>
+        <v>3286</v>
       </c>
       <c r="G7" t="n">
-        <v>360</v>
-      </c>
-      <c r="H7" t="n">
-        <v>38</v>
-      </c>
-      <c r="I7" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>684</v>
+      </c>
+      <c r="H7" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>124</v>
       </c>
       <c r="J7" t="n">
+        <v>124</v>
+      </c>
+      <c r="K7" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>999</v>
+      </c>
+      <c r="M7" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>252</v>
+      </c>
+      <c r="O7" t="n">
+        <v>18</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-181</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>212</v>
+      </c>
+      <c r="R7" t="n">
+        <v>-178</v>
+      </c>
+      <c r="S7" t="n">
+        <v>127</v>
+      </c>
+      <c r="T7" t="n">
+        <v>-210</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W7" t="n">
         <v>0.37</v>
       </c>
-      <c r="K7" t="n">
-        <v>-320</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="n">
-        <v>628</v>
-      </c>
-      <c r="N7" t="n">
-        <v>23</v>
-      </c>
-      <c r="O7" t="n">
-        <v>-79</v>
-      </c>
-      <c r="P7" t="n">
-        <v>38</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1105</v>
-      </c>
-      <c r="R7" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S7" t="n">
-        <v>-4</v>
+      <c r="X7" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y7" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -1072,62 +1324,88 @@
         <v>90006</v>
       </c>
       <c r="B8" t="n">
-        <v>4729</v>
+        <v>-126</v>
       </c>
       <c r="C8" t="n">
-        <v>210</v>
+        <v>2622</v>
       </c>
       <c r="D8" t="n">
-        <v>-9099</v>
+        <v>811</v>
       </c>
       <c r="E8" t="n">
-        <v>781</v>
+        <v>-1179</v>
       </c>
       <c r="F8" t="n">
-        <v>-5448</v>
+        <v>879</v>
       </c>
       <c r="G8" t="n">
-        <v>1305</v>
-      </c>
-      <c r="H8" t="n">
-        <v>222</v>
-      </c>
-      <c r="I8" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>-309</v>
+      </c>
+      <c r="H8" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>25</v>
       </c>
       <c r="J8" t="n">
+        <v>25</v>
+      </c>
+      <c r="K8" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>94</v>
+      </c>
+      <c r="M8" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>124</v>
+      </c>
+      <c r="O8" t="n">
+        <v>187</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-381</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>45</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-191</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1137</v>
+      </c>
+      <c r="T8" t="n">
+        <v>-127</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W8" t="n">
         <v>0.37</v>
       </c>
-      <c r="K8" t="n">
-        <v>-227</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="n">
-        <v>474</v>
-      </c>
-      <c r="N8" t="n">
-        <v>6</v>
-      </c>
-      <c r="O8" t="n">
-        <v>-226</v>
-      </c>
-      <c r="P8" t="n">
-        <v>222</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1977</v>
-      </c>
-      <c r="R8" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S8" t="n">
-        <v>183</v>
+      <c r="X8" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y8" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -1135,62 +1413,88 @@
         <v>90007</v>
       </c>
       <c r="B9" t="n">
-        <v>510</v>
+        <v>1608</v>
       </c>
       <c r="C9" t="n">
-        <v>211</v>
+        <v>1062</v>
       </c>
       <c r="D9" t="n">
-        <v>602</v>
+        <v>15</v>
       </c>
       <c r="E9" t="n">
-        <v>-2486</v>
+        <v>408</v>
       </c>
       <c r="F9" t="n">
-        <v>239</v>
+        <v>500</v>
       </c>
       <c r="G9" t="n">
-        <v>6752</v>
-      </c>
-      <c r="H9" t="n">
-        <v>334</v>
-      </c>
-      <c r="I9" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>824</v>
+      </c>
+      <c r="H9" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
       </c>
       <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>-135</v>
+      </c>
+      <c r="M9" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>708</v>
+      </c>
+      <c r="O9" t="n">
+        <v>5</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-246</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-8</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1523</v>
+      </c>
+      <c r="T9" t="n">
+        <v>-124</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W9" t="n">
         <v>0.37</v>
       </c>
-      <c r="K9" t="n">
-        <v>-298</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="n">
-        <v>606</v>
-      </c>
-      <c r="N9" t="n">
-        <v>190</v>
-      </c>
-      <c r="O9" t="n">
-        <v>-372</v>
-      </c>
-      <c r="P9" t="n">
-        <v>334</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1483</v>
-      </c>
-      <c r="R9" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S9" t="n">
-        <v>130</v>
+      <c r="X9" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y9" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -1198,62 +1502,88 @@
         <v>90008</v>
       </c>
       <c r="B10" t="n">
-        <v>-1172</v>
+        <v>725</v>
       </c>
       <c r="C10" t="n">
-        <v>-287</v>
+        <v>-151</v>
       </c>
       <c r="D10" t="n">
-        <v>677</v>
+        <v>-433</v>
       </c>
       <c r="E10" t="n">
-        <v>969</v>
+        <v>738</v>
       </c>
       <c r="F10" t="n">
-        <v>320</v>
+        <v>215</v>
       </c>
       <c r="G10" t="n">
-        <v>466</v>
-      </c>
-      <c r="H10" t="n">
-        <v>294</v>
-      </c>
-      <c r="I10" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>775</v>
+      </c>
+      <c r="H10" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>146</v>
       </c>
       <c r="J10" t="n">
+        <v>146</v>
+      </c>
+      <c r="K10" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>535</v>
+      </c>
+      <c r="M10" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>437</v>
+      </c>
+      <c r="O10" t="n">
+        <v>163</v>
+      </c>
+      <c r="P10" t="n">
+        <v>-184</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>251</v>
+      </c>
+      <c r="R10" t="n">
+        <v>-42</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1282</v>
+      </c>
+      <c r="T10" t="n">
+        <v>-87</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W10" t="n">
         <v>0.37</v>
       </c>
-      <c r="K10" t="n">
-        <v>-504</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="n">
-        <v>205</v>
-      </c>
-      <c r="N10" t="n">
-        <v>84</v>
-      </c>
-      <c r="O10" t="n">
-        <v>-184</v>
-      </c>
-      <c r="P10" t="n">
-        <v>294</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1252</v>
-      </c>
-      <c r="R10" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S10" t="n">
-        <v>141</v>
+      <c r="X10" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y10" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1261,62 +1591,88 @@
         <v>90009</v>
       </c>
       <c r="B11" t="n">
-        <v>897</v>
+        <v>7026</v>
       </c>
       <c r="C11" t="n">
-        <v>3195</v>
+        <v>-111</v>
       </c>
       <c r="D11" t="n">
-        <v>999</v>
+        <v>16</v>
       </c>
       <c r="E11" t="n">
-        <v>678</v>
+        <v>803</v>
       </c>
       <c r="F11" t="n">
-        <v>503</v>
+        <v>326</v>
       </c>
       <c r="G11" t="n">
-        <v>-761</v>
-      </c>
-      <c r="H11" t="n">
+        <v>447</v>
+      </c>
+      <c r="H11" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>-138</v>
+      </c>
+      <c r="M11" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>596</v>
+      </c>
+      <c r="O11" t="n">
+        <v>42</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-386</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>-49</v>
+      </c>
+      <c r="S11" t="n">
+        <v>425</v>
+      </c>
+      <c r="T11" t="n">
+        <v>-338</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W11" t="n">
         <v>0.37</v>
       </c>
-      <c r="K11" t="n">
-        <v>-240</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="n">
-        <v>322</v>
-      </c>
-      <c r="N11" t="n">
-        <v>18</v>
-      </c>
-      <c r="O11" t="n">
-        <v>-35</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>-781</v>
-      </c>
-      <c r="R11" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S11" t="n">
-        <v>-65</v>
+      <c r="X11" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y11" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
   </sheetData>
